--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="351">
   <si>
     <t>开拓足球计划</t>
   </si>
@@ -192,6 +192,9 @@
     <t>表名</t>
   </si>
   <si>
+    <t>参考网址：http://demo.homecommunity.cn/user.html#/pages/frame/login</t>
+  </si>
+  <si>
     <t>开发者、运营者、区域登陆入口</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
     <t>一个区域管理员可能对应有多个球队</t>
   </si>
   <si>
+    <t>周文龙</t>
+  </si>
+  <si>
     <t>消息查看</t>
   </si>
   <si>
@@ -237,6 +243,9 @@
     <t>基础信息模板下载</t>
   </si>
   <si>
+    <t>肖扬</t>
+  </si>
+  <si>
     <t>场地信息模板下载</t>
   </si>
   <si>
@@ -255,6 +264,9 @@
     <t>日程信息查询</t>
   </si>
   <si>
+    <t>王超</t>
+  </si>
+  <si>
     <t>日程信息新增</t>
   </si>
   <si>
@@ -403,9 +415,6 @@
   </si>
   <si>
     <t>收费科目查询</t>
-  </si>
-  <si>
-    <t>周文龙</t>
   </si>
   <si>
     <t>收费科目新增</t>
@@ -1087,12 +1096,6 @@
   <si>
     <t>绵阳市商业银行</t>
   </si>
-  <si>
-    <t>王超</t>
-  </si>
-  <si>
-    <t>肖扬</t>
-  </si>
 </sst>
 </file>
 
@@ -1104,7 +1107,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1132,6 +1135,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF6A8759"/>
+      <name val="Courier New"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1667,10 +1676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1679,34 +1688,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1718,98 +1724,101 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1941,40 +1950,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2371,64 +2375,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
     </row>
     <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2442,7 +2446,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2480,30 +2484,30 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="36"/>
-      <c r="H2" s="59"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="57" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2511,11 +2515,11 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="59"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="44" t="s">
         <v>25</v>
       </c>
@@ -2525,11 +2529,11 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="36"/>
-      <c r="H4" s="59"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
@@ -2541,11 +2545,11 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="59"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2559,11 +2563,11 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="36"/>
-      <c r="H6" s="59"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="44" t="s">
         <v>31</v>
       </c>
@@ -2575,55 +2579,55 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="59"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="59"/>
+      <c r="D8" s="58"/>
       <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="59"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="59"/>
+      <c r="D9" s="58"/>
       <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="59"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="59"/>
+      <c r="D10" s="58"/>
       <c r="E10" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="59"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -2636,12 +2640,12 @@
         <v>22</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36"/>
-      <c r="B12" s="61"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="36" t="s">
         <v>40</v>
       </c>
@@ -2652,12 +2656,12 @@
         <v>22</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36"/>
-      <c r="B13" s="61"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="36" t="s">
         <v>42</v>
       </c>
@@ -2666,62 +2670,62 @@
         <v>22</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" ht="14.25" spans="1:8">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="62" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" ht="14.25" spans="1:8">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="64"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" ht="14.25" spans="1:8">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H16">
@@ -2749,12 +2753,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2767,10 +2771,12 @@
     <col min="6" max="6" width="15.8916666666667" style="43" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="43" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="43"/>
+    <col min="9" max="10" width="9" style="43"/>
+    <col min="11" max="11" width="21.75" style="43" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" ht="54" spans="1:11">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -2798,2296 +2804,2064 @@
       <c r="I1" s="43" t="s">
         <v>54</v>
       </c>
+      <c r="K1" s="56" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="E2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="47"/>
-      <c r="H2" s="47" t="s">
-        <v>57</v>
+      <c r="H2" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
-        <v>57</v>
-      </c>
+      <c r="C3" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="45"/>
-      <c r="B4" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47" t="s">
-        <v>57</v>
-      </c>
+      <c r="A4" s="36"/>
+      <c r="B4" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="43"/>
+      <c r="H4" s="48"/>
     </row>
     <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47" t="s">
-        <v>57</v>
+      <c r="C5" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47" t="s">
-        <v>57</v>
-      </c>
+      <c r="A6" s="36"/>
+      <c r="B6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" ht="14.25" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47" t="s">
-        <v>57</v>
-      </c>
+      <c r="A7" s="36"/>
+      <c r="B7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="50" t="s">
-        <v>67</v>
+      <c r="A8" s="36" t="s">
+        <v>69</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="51"/>
       <c r="E8" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="52"/>
-      <c r="H8" s="52" t="s">
-        <v>57</v>
+      <c r="H8" s="48" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="50"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="50"/>
       <c r="C9" s="51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="52"/>
-      <c r="H9" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="50"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="50"/>
       <c r="C10" s="51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="52"/>
-      <c r="H10" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="50"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="50"/>
       <c r="C11" s="51" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D11" s="51"/>
       <c r="E11" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="52"/>
-      <c r="H11" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="50"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="50"/>
       <c r="C12" s="51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D12" s="51"/>
       <c r="E12" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="50"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="50"/>
       <c r="C13" s="51" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D13" s="51"/>
       <c r="E13" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G13" s="52"/>
-      <c r="H13" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="50"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="50" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" s="51"/>
       <c r="E14" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="52"/>
-      <c r="H14" s="52" t="s">
-        <v>57</v>
+      <c r="H14" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="50"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="50"/>
       <c r="C15" s="51" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D15" s="51"/>
       <c r="E15" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F15" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="52"/>
-      <c r="H15" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="50"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="50"/>
       <c r="C16" s="51" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D16" s="51"/>
       <c r="E16" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="52"/>
-      <c r="H16" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H16" s="48"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="50"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="50"/>
       <c r="C17" s="51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F17" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="52"/>
-      <c r="H17" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H17" s="48"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="50"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="50"/>
       <c r="C18" s="51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D18" s="51"/>
       <c r="E18" s="50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="52"/>
-      <c r="H18" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52" t="s">
-        <v>57</v>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="51"/>
-      <c r="E20" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="49"/>
+      <c r="E21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F22" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="50"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="51"/>
-      <c r="E24" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="48"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="48"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="51"/>
-      <c r="E26" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52" t="s">
-        <v>57</v>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="49"/>
+      <c r="E28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="51" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="51" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="51" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D31" s="51"/>
       <c r="E31" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="50"/>
-      <c r="B32" s="50"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="51" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="50" t="s">
-        <v>96</v>
+      <c r="A33" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="52" t="s">
-        <v>57</v>
+        <v>57</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="50"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F34" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="50"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="53"/>
-      <c r="H35" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="50"/>
+      <c r="A36" s="36"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="53"/>
-      <c r="H36" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F36" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="50"/>
+      <c r="A37" s="36"/>
       <c r="B37" s="50"/>
       <c r="C37" s="50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="50"/>
+      <c r="A38" s="36"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="50"/>
+      <c r="A39" s="36"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="50"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="50"/>
-      <c r="B41" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F41" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52" t="s">
-        <v>57</v>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="48" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="49"/>
+      <c r="E42" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F44" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="48"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="48"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52" t="s">
-        <v>57</v>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F49" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="50"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D50" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="48"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F51" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="48"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="48"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52" t="s">
-        <v>57</v>
-      </c>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="48"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B54" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F54" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="55"/>
+      <c r="A54" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="52"/>
       <c r="H54" s="55" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="52"/>
+      <c r="H55" s="55"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F56" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="52"/>
+      <c r="H56" s="55"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="52"/>
+      <c r="H57" s="55"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F58" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="52"/>
+      <c r="H58" s="55"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="55"/>
+      <c r="A59" s="50"/>
+      <c r="B59" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="52"/>
       <c r="H59" s="55" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="52"/>
+      <c r="H60" s="55"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="52"/>
+      <c r="H61" s="55"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F62" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="52"/>
+      <c r="H62" s="55"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="55"/>
+      <c r="A63" s="50"/>
+      <c r="B63" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="52"/>
       <c r="H63" s="55" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="52"/>
+      <c r="H64" s="55"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="52"/>
+      <c r="H65" s="55"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="52"/>
+      <c r="H66" s="55"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="52"/>
+      <c r="H67" s="55"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F68" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="55"/>
+      <c r="A68" s="50"/>
+      <c r="B68" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="52"/>
       <c r="H68" s="55" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F69" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="50"/>
+      <c r="E69" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="52"/>
+      <c r="H69" s="55"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="50"/>
+      <c r="E70" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="52"/>
+      <c r="H70" s="55"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="50"/>
+      <c r="E71" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="52"/>
+      <c r="H71" s="55"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D72" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E72" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="55"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="52"/>
       <c r="H72" s="55" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F73" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="55"/>
-      <c r="H73" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="52"/>
+      <c r="H73" s="55"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F74" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="52"/>
+      <c r="H74" s="55"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F75" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="52"/>
+      <c r="H75" s="55"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F76" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="52"/>
+      <c r="H76" s="55"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="54"/>
-      <c r="B77" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="D77" s="54"/>
-      <c r="E77" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="55"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="52"/>
       <c r="H77" s="55" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54" t="s">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="50"/>
+      <c r="E78" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="52"/>
+      <c r="H78" s="55"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="52"/>
+      <c r="H79" s="55"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="54"/>
-      <c r="E78" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="54"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E79" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="54"/>
-      <c r="B80" s="54"/>
-      <c r="C80" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D80" s="54"/>
-      <c r="E80" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="55"/>
-      <c r="H80" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="D80" s="50"/>
+      <c r="E80" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="52"/>
+      <c r="H80" s="55"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54" t="s">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="50"/>
+      <c r="E81" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="52"/>
+      <c r="H81" s="55"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="50"/>
+      <c r="B82" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="52"/>
+      <c r="H82" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="50"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" s="50"/>
+      <c r="E83" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="52"/>
+      <c r="H83" s="55"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="50"/>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F81" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="55"/>
-      <c r="H81" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F82" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F83" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="54"/>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F84" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="52"/>
+      <c r="H84" s="55"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F85" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="55"/>
-      <c r="H85" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A85" s="50"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D85" s="50"/>
+      <c r="E85" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="52"/>
+      <c r="H85" s="55"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="54"/>
-      <c r="B86" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="C86" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="D86" s="54"/>
-      <c r="E86" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F86" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="55"/>
+      <c r="A86" s="50"/>
+      <c r="B86" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D86" s="50"/>
+      <c r="E86" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="52"/>
       <c r="H86" s="55" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="54"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" s="54"/>
-      <c r="E87" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F87" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="55"/>
-      <c r="H87" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A87" s="50"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="52"/>
+      <c r="H87" s="55"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="55"/>
-      <c r="H88" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="A88" s="50"/>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="52"/>
+      <c r="H88" s="55"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54" t="s">
-        <v>56</v>
+        <v>170</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F89" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="56"/>
+      <c r="G89" s="48"/>
       <c r="H89" s="55" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="36"/>
-      <c r="B90" s="54"/>
-      <c r="C90" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54" t="s">
-        <v>56</v>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F90" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G90" s="56"/>
-      <c r="H90" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G90" s="48"/>
+      <c r="H90" s="55"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="36"/>
-      <c r="B91" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C91" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D91" s="54"/>
-      <c r="E91" s="54" t="s">
-        <v>56</v>
+      <c r="B91" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F91" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="56"/>
-      <c r="H91" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G91" s="48"/>
+      <c r="H91" s="55"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="36"/>
-      <c r="B92" s="54"/>
-      <c r="C92" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="54"/>
-      <c r="E92" s="54" t="s">
-        <v>56</v>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F92" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G92" s="56"/>
-      <c r="H92" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G92" s="48"/>
+      <c r="H92" s="55"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="36"/>
-      <c r="B93" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="C93" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D93" s="54"/>
-      <c r="E93" s="54" t="s">
-        <v>56</v>
+      <c r="B93" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="50"/>
+      <c r="E93" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F93" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G93" s="56"/>
-      <c r="H93" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G93" s="48"/>
+      <c r="H93" s="55"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="36"/>
-      <c r="B94" s="54"/>
-      <c r="C94" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" s="54"/>
-      <c r="E94" s="54" t="s">
-        <v>56</v>
+      <c r="B94" s="50"/>
+      <c r="C94" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F94" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G94" s="56"/>
-      <c r="H94" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G94" s="48"/>
+      <c r="H94" s="55"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="36"/>
-      <c r="B95" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54" t="s">
-        <v>56</v>
+      <c r="B95" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F95" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G95" s="56"/>
-      <c r="H95" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G95" s="48"/>
+      <c r="H95" s="55"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="36"/>
-      <c r="B96" s="54"/>
-      <c r="C96" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="54"/>
-      <c r="E96" s="54" t="s">
-        <v>56</v>
+      <c r="B96" s="50"/>
+      <c r="C96" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" s="50"/>
+      <c r="E96" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F96" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G96" s="56"/>
-      <c r="H96" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G96" s="48"/>
+      <c r="H96" s="55"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="36"/>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="C97" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D97" s="54"/>
-      <c r="E97" s="54" t="s">
-        <v>56</v>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F97" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="56"/>
-      <c r="H97" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G97" s="48"/>
+      <c r="H97" s="55"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="36"/>
-      <c r="B98" s="54"/>
-      <c r="C98" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54" t="s">
-        <v>56</v>
+      <c r="B98" s="50"/>
+      <c r="C98" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" s="50"/>
+      <c r="E98" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F98" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G98" s="56"/>
-      <c r="H98" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G98" s="48"/>
+      <c r="H98" s="55"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="36"/>
-      <c r="B99" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="C99" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="54"/>
-      <c r="E99" s="54" t="s">
-        <v>56</v>
+      <c r="B99" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" s="50"/>
+      <c r="E99" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F99" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G99" s="56"/>
-      <c r="H99" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G99" s="48"/>
+      <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="36"/>
-      <c r="B100" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="C100" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D100" s="54"/>
-      <c r="E100" s="54" t="s">
-        <v>56</v>
+      <c r="B100" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D100" s="50"/>
+      <c r="E100" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F100" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G100" s="56"/>
-      <c r="H100" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G100" s="48"/>
+      <c r="H100" s="55"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="36"/>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54" t="s">
-        <v>56</v>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F101" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G101" s="56"/>
-      <c r="H101" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G101" s="48"/>
+      <c r="H101" s="55"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="36"/>
-      <c r="B102" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="C102" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54" t="s">
-        <v>56</v>
+      <c r="B102" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F102" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="56"/>
-      <c r="H102" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G102" s="48"/>
+      <c r="H102" s="55"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B103" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="C103" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54" t="s">
-        <v>56</v>
+        <v>182</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F103" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G103" s="56"/>
+      <c r="G103" s="48"/>
       <c r="H103" s="55" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="36"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54" t="s">
-        <v>56</v>
+      <c r="B104" s="50"/>
+      <c r="C104" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D104" s="50"/>
+      <c r="E104" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F104" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="56"/>
-      <c r="H104" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G104" s="48"/>
+      <c r="H104" s="55"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="36"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54" t="s">
-        <v>56</v>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F105" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G105" s="56"/>
-      <c r="H105" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G105" s="48"/>
+      <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="36"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54" t="s">
-        <v>56</v>
+      <c r="B106" s="50"/>
+      <c r="C106" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D106" s="50"/>
+      <c r="E106" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F106" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="56"/>
-      <c r="H106" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G106" s="48"/>
+      <c r="H106" s="55"/>
     </row>
     <row r="107" ht="33" customHeight="1" spans="1:8">
       <c r="A107" s="36"/>
-      <c r="B107" s="54"/>
-      <c r="C107" s="54" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="E107" s="54" t="s">
-        <v>56</v>
+      <c r="B107" s="50"/>
+      <c r="C107" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F107" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H107" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="H107" s="55"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="36"/>
-      <c r="B108" s="54"/>
-      <c r="C108" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54" t="s">
-        <v>56</v>
+      <c r="B108" s="50"/>
+      <c r="C108" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="50"/>
+      <c r="E108" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F108" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G108" s="56"/>
-      <c r="H108" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G108" s="48"/>
+      <c r="H108" s="55"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="36"/>
-      <c r="B109" s="54"/>
-      <c r="C109" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="D109" s="54"/>
-      <c r="E109" s="54" t="s">
-        <v>56</v>
+      <c r="B109" s="50"/>
+      <c r="C109" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="50"/>
+      <c r="E109" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F109" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="56"/>
-      <c r="H109" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G109" s="48"/>
+      <c r="H109" s="55"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="36"/>
-      <c r="B110" s="54"/>
-      <c r="C110" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D110" s="54"/>
-      <c r="E110" s="54" t="s">
-        <v>56</v>
+      <c r="B110" s="50"/>
+      <c r="C110" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D110" s="50"/>
+      <c r="E110" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F110" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G110" s="48"/>
+      <c r="H110" s="55"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="36"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54" t="s">
-        <v>56</v>
+      <c r="B111" s="50"/>
+      <c r="C111" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="50"/>
+      <c r="E111" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F111" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G111" s="56"/>
-      <c r="H111" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G111" s="48"/>
+      <c r="H111" s="55"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="36"/>
-      <c r="B112" s="54"/>
-      <c r="C112" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D112" s="54"/>
-      <c r="E112" s="54" t="s">
-        <v>56</v>
+      <c r="B112" s="50"/>
+      <c r="C112" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F112" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G112" s="56"/>
-      <c r="H112" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G112" s="48"/>
+      <c r="H112" s="55"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="36"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="D113" s="54"/>
-      <c r="E113" s="54" t="s">
-        <v>56</v>
+      <c r="B113" s="50"/>
+      <c r="C113" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D113" s="50"/>
+      <c r="E113" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F113" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G113" s="56"/>
-      <c r="H113" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G113" s="48"/>
+      <c r="H113" s="55"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="36"/>
-      <c r="B114" s="54"/>
-      <c r="C114" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="D114" s="54"/>
-      <c r="E114" s="54" t="s">
-        <v>56</v>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F114" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G114" s="56"/>
-      <c r="H114" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G114" s="48"/>
+      <c r="H114" s="55"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="36"/>
-      <c r="B115" s="54"/>
-      <c r="C115" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="D115" s="54"/>
-      <c r="E115" s="54" t="s">
-        <v>56</v>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F115" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G115" s="56"/>
-      <c r="H115" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G115" s="48"/>
+      <c r="H115" s="55"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="36"/>
-      <c r="B116" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D116" s="54"/>
-      <c r="E116" s="54" t="s">
-        <v>56</v>
+      <c r="B116" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="D116" s="50"/>
+      <c r="E116" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F116" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G116" s="56"/>
+      <c r="G116" s="48"/>
       <c r="H116" s="55" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="36"/>
-      <c r="B117" s="54"/>
-      <c r="C117" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="D117" s="54"/>
-      <c r="E117" s="54" t="s">
-        <v>56</v>
+      <c r="B117" s="50"/>
+      <c r="C117" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D117" s="50"/>
+      <c r="E117" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F117" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G117" s="56"/>
-      <c r="H117" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G117" s="48"/>
+      <c r="H117" s="55"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="36"/>
-      <c r="B118" s="54"/>
-      <c r="C118" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D118" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="E118" s="54" t="s">
-        <v>56</v>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F118" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="56"/>
-      <c r="H118" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G118" s="48"/>
+      <c r="H118" s="55"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="36"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D119" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="E119" s="54" t="s">
-        <v>56</v>
+      <c r="B119" s="50"/>
+      <c r="C119" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F119" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="56"/>
-      <c r="H119" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G119" s="48"/>
+      <c r="H119" s="55"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="36"/>
-      <c r="B120" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="C120" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D120" s="54"/>
-      <c r="E120" s="54" t="s">
-        <v>56</v>
+      <c r="B120" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="D120" s="50"/>
+      <c r="E120" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F120" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G120" s="56"/>
-      <c r="H120" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G120" s="48"/>
+      <c r="H120" s="55"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="36"/>
-      <c r="B121" s="54"/>
-      <c r="C121" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D121" s="54"/>
-      <c r="E121" s="54" t="s">
-        <v>56</v>
+      <c r="B121" s="50"/>
+      <c r="C121" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F121" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G121" s="56"/>
-      <c r="H121" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G121" s="48"/>
+      <c r="H121" s="55"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="36"/>
-      <c r="B122" s="54"/>
-      <c r="C122" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D122" s="54"/>
-      <c r="E122" s="54" t="s">
-        <v>56</v>
+      <c r="B122" s="50"/>
+      <c r="C122" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F122" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G122" s="56"/>
-      <c r="H122" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="G122" s="48"/>
+      <c r="H122" s="55"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="36"/>
-      <c r="B123" s="54"/>
-      <c r="C123" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D123" s="54"/>
-      <c r="E123" s="54" t="s">
-        <v>56</v>
+      <c r="B123" s="50"/>
+      <c r="C123" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="F123" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H123" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="H123" s="55"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="36" t="s">
@@ -5099,20 +4873,18 @@
       <c r="C124" s="36"/>
       <c r="D124" s="36"/>
       <c r="E124" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F124" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H124" s="55" t="s">
-        <v>126</v>
-      </c>
+      <c r="H124" s="55"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F124">
     <extLst/>
   </autoFilter>
-  <mergeCells count="38">
+  <mergeCells count="58">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A32"/>
@@ -5151,6 +4923,26 @@
     <mergeCell ref="G112:G115"/>
     <mergeCell ref="G116:G119"/>
     <mergeCell ref="G120:G122"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H13"/>
+    <mergeCell ref="H14:H18"/>
+    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="H27:H32"/>
+    <mergeCell ref="H33:H40"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="H46:H53"/>
+    <mergeCell ref="H54:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="H63:H67"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="H77:H81"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="H86:H88"/>
+    <mergeCell ref="H89:H102"/>
+    <mergeCell ref="H103:H115"/>
+    <mergeCell ref="H116:H124"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5164,7 +4956,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
@@ -5201,48 +4993,48 @@
         <v>18</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="26" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="26" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H3" s="27"/>
     </row>
@@ -5250,17 +5042,17 @@
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H4" s="27"/>
     </row>
@@ -5268,35 +5060,35 @@
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="28" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
@@ -5306,13 +5098,13 @@
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
@@ -5322,13 +5114,13 @@
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="30"/>
@@ -5338,13 +5130,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>224</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
@@ -5354,13 +5146,13 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
@@ -5370,13 +5162,13 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
@@ -5386,13 +5178,13 @@
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -5402,13 +5194,13 @@
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -5418,13 +5210,13 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -5433,16 +5225,16 @@
     <row r="15" spans="1:8">
       <c r="A15" s="28"/>
       <c r="B15" s="28" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -5452,13 +5244,13 @@
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
@@ -5468,13 +5260,13 @@
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
@@ -5484,13 +5276,13 @@
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -5500,13 +5292,13 @@
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="26" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
@@ -5516,13 +5308,13 @@
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="26" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
@@ -5532,13 +5324,13 @@
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="26" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
@@ -5548,13 +5340,13 @@
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="26" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
@@ -5564,13 +5356,13 @@
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="26" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
@@ -5579,16 +5371,16 @@
     <row r="24" spans="1:8">
       <c r="A24" s="28"/>
       <c r="B24" s="28" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
@@ -5598,13 +5390,13 @@
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="29" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
@@ -5614,7 +5406,7 @@
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="29" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>22</v>
@@ -5628,7 +5420,7 @@
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>22</v>
@@ -5642,7 +5434,7 @@
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>22</v>
@@ -5656,7 +5448,7 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>22</v>
@@ -5670,7 +5462,7 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>22</v>
@@ -5684,7 +5476,7 @@
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>22</v>
@@ -5696,13 +5488,13 @@
     </row>
     <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="31" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>22</v>
@@ -5712,17 +5504,17 @@
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="30" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="32" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>22</v>
@@ -5732,7 +5524,7 @@
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="30" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H33" s="27"/>
     </row>
@@ -5740,7 +5532,7 @@
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="32" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>22</v>
@@ -5750,7 +5542,7 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="30" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H34" s="27"/>
     </row>
@@ -5758,7 +5550,7 @@
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="32" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>22</v>
@@ -5768,19 +5560,19 @@
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="30" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>22</v>
@@ -5794,7 +5586,7 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="29" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>22</v>
@@ -5806,13 +5598,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="35" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>22</v>
@@ -5826,7 +5618,7 @@
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>22</v>
@@ -5840,7 +5632,7 @@
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="29" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>22</v>
@@ -5854,7 +5646,7 @@
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="29" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>22</v>
@@ -5868,7 +5660,7 @@
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="29" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>22</v>
@@ -5882,7 +5674,7 @@
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="29" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>22</v>
@@ -5896,7 +5688,7 @@
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="29" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>22</v>
@@ -5908,13 +5700,13 @@
     </row>
     <row r="45" hidden="1" spans="1:8">
       <c r="A45" s="39" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>22</v>
@@ -5928,7 +5720,7 @@
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="40" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>22</v>
@@ -5942,7 +5734,7 @@
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>22</v>
@@ -5956,7 +5748,7 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="40" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>22</v>
@@ -5968,13 +5760,13 @@
     </row>
     <row r="49" hidden="1" spans="1:8">
       <c r="A49" s="39" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>22</v>
@@ -5988,7 +5780,7 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>22</v>
@@ -6019,10 +5811,10 @@
     <row r="52" spans="1:8">
       <c r="A52" s="38"/>
       <c r="B52" s="35" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>22</v>
@@ -6036,7 +5828,7 @@
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>22</v>
@@ -6125,7 +5917,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -6134,7 +5926,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -6143,13 +5935,13 @@
     <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -6157,16 +5949,16 @@
     </row>
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>274</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6176,10 +5968,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -6188,13 +5980,13 @@
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -6209,7 +6001,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -6217,16 +6009,16 @@
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="12"/>
@@ -6236,10 +6028,10 @@
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="12"/>
@@ -6248,13 +6040,13 @@
     <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -6264,10 +6056,10 @@
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -6276,13 +6068,13 @@
     <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -6292,10 +6084,10 @@
       <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -6304,13 +6096,13 @@
     <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -6320,10 +6112,10 @@
       <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -6333,10 +6125,10 @@
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -6346,10 +6138,10 @@
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -6359,10 +6151,10 @@
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -6372,10 +6164,10 @@
       <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -6385,10 +6177,10 @@
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -6416,7 +6208,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E12"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6453,16 +6245,16 @@
     </row>
     <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
@@ -6477,7 +6269,7 @@
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -6486,13 +6278,13 @@
     <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -6500,67 +6292,67 @@
     </row>
     <row r="5" ht="15" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
@@ -6569,62 +6361,62 @@
     <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="H11" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:7">
@@ -6634,7 +6426,7 @@
         <v>50</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="12"/>
@@ -6642,16 +6434,16 @@
     </row>
     <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="8"/>
@@ -6661,10 +6453,10 @@
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="8"/>
@@ -6674,10 +6466,10 @@
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="8"/>
@@ -6686,13 +6478,13 @@
     <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="8"/>
@@ -6702,10 +6494,10 @@
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="8"/>
@@ -6714,13 +6506,13 @@
     <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8"/>
@@ -6730,10 +6522,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="8"/>
@@ -6743,10 +6535,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
@@ -6755,13 +6547,13 @@
     <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="14"/>
@@ -6770,13 +6562,13 @@
     <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
@@ -6817,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6830,60 +6622,60 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="E2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -1102,10 +1102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1144,6 +1144,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1166,7 +1197,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,9 +1229,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1235,15 +1274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1251,38 +1281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,6 +1327,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1339,7 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,7 +1399,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,31 +1459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,31 +1471,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,73 +1495,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,6 +1573,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1584,39 +1604,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1651,6 +1638,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1659,27 +1670,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,133 +1688,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2367,14 +2367,14 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
     <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="42.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="42.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="15.6" spans="1:4">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" s="67" t="s">
         <v>4</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="15.6" spans="1:4">
       <c r="A3" s="67" t="s">
         <v>7</v>
       </c>
@@ -2410,7 +2410,7 @@
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="15.6" spans="1:4">
       <c r="A4" s="67" t="s">
         <v>8</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="15.6" spans="1:4">
       <c r="A5" s="67" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2426,7 @@
       <c r="C5" s="67"/>
       <c r="D5" s="67"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="15.6" spans="1:4">
       <c r="A6" s="67" t="s">
         <v>10</v>
       </c>
@@ -2449,11 +2449,11 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.775" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2483,7 +2483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="58"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="44" t="s">
@@ -2531,7 +2531,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="58"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
@@ -2673,7 +2673,7 @@
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="64"/>
       <c r="B15" s="65"/>
       <c r="C15" s="4" t="s">
@@ -2709,7 +2709,7 @@
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="66" t="s">
         <v>48</v>
       </c>
@@ -2756,27 +2756,27 @@
   <dimension ref="A1:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.6333333333333" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.8833333333333" style="43" customWidth="1"/>
-    <col min="4" max="4" width="51.3833333333333" style="43" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" style="43" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.8796296296296" style="43" customWidth="1"/>
+    <col min="4" max="4" width="51.3796296296296" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="6" width="15.8916666666667" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="43" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.6296296296296" style="43" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
     <col min="9" max="10" width="9" style="43"/>
     <col min="11" max="11" width="21.75" style="43" customWidth="1"/>
     <col min="12" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:11">
+    <row r="1" ht="57.6" spans="1:11">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="36"/>
       <c r="B3" s="45" t="s">
         <v>59</v>
@@ -2862,10 +2862,9 @@
       <c r="F4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="43"/>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="36"/>
       <c r="B6" s="45" t="s">
         <v>66</v>
@@ -2905,7 +2904,7 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="36"/>
       <c r="B7" s="45" t="s">
         <v>67</v>
@@ -3036,7 +3035,7 @@
       <c r="E14" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="52"/>
@@ -3054,7 +3053,7 @@
       <c r="E15" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="52"/>
@@ -3070,7 +3069,7 @@
       <c r="E16" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="52"/>
@@ -3086,7 +3085,7 @@
       <c r="E17" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="52" t="s">
+      <c r="F17" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="52"/>
@@ -3102,7 +3101,7 @@
       <c r="E18" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="52" t="s">
+      <c r="F18" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="52"/>
@@ -4961,13 +4960,13 @@
       <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.225" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4996,7 +4995,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="22" t="s">
         <v>210</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
@@ -5038,7 +5037,7 @@
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
@@ -5056,7 +5055,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -5486,7 +5485,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" ht="14.25" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="31" t="s">
         <v>244</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="32" t="s">
@@ -5528,7 +5527,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" ht="14.25" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="32" t="s">
@@ -5546,7 +5545,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" ht="14.25" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="32" t="s">
@@ -5883,16 +5882,16 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="17.1333333333333" customWidth="1"/>
-    <col min="4" max="5" width="17.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
+    <col min="4" max="5" width="17.3796296296296" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>279</v>
       </c>
@@ -5932,7 +5931,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>60</v>
@@ -5947,7 +5946,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>280</v>
       </c>
@@ -5964,7 +5963,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -5977,7 +5976,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>283</v>
@@ -5992,7 +5991,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -6007,7 +6006,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="16" t="s">
         <v>285</v>
       </c>
@@ -6024,7 +6023,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
@@ -6037,7 +6036,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>289</v>
@@ -6052,7 +6051,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
@@ -6065,7 +6064,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>292</v>
@@ -6080,7 +6079,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
@@ -6093,7 +6092,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>295</v>
@@ -6108,7 +6107,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
@@ -6121,7 +6120,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
@@ -6134,7 +6133,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
@@ -6147,7 +6146,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
@@ -6160,7 +6159,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
@@ -6173,7 +6172,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
@@ -6211,16 +6210,16 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="28.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>279</v>
       </c>
@@ -6260,7 +6259,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -6275,7 +6274,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>60</v>
@@ -6290,7 +6289,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>304</v>
       </c>
@@ -6309,7 +6308,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>308</v>
@@ -6326,7 +6325,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>311</v>
@@ -6343,7 +6342,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>314</v>
@@ -6358,7 +6357,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
         <v>280</v>
@@ -6377,7 +6376,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
         <v>317</v>
@@ -6399,7 +6398,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
@@ -6419,7 +6418,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
@@ -6432,7 +6431,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>324</v>
       </c>
@@ -6449,7 +6448,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
@@ -6462,7 +6461,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
@@ -6475,7 +6474,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>329</v>
@@ -6490,7 +6489,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
@@ -6503,7 +6502,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>332</v>
@@ -6518,7 +6517,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
@@ -6531,7 +6530,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
@@ -6544,7 +6543,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>286</v>
@@ -6559,7 +6558,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="14.25" spans="1:6">
+    <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
         <v>337</v>
@@ -6597,14 +6596,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
+    <workbookView windowWidth="28110" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">运营者!$A$1:$H$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">平台pc端!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">平台pc端!$A$1:$F$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">开发者!$A$1:$H$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="362">
   <si>
     <t>开拓足球计划</t>
   </si>
@@ -312,6 +312,9 @@
     <t>器材类型查询</t>
   </si>
   <si>
+    <t>张靖</t>
+  </si>
+  <si>
     <t>器材状态查询</t>
   </si>
   <si>
@@ -571,6 +574,39 @@
   </si>
   <si>
     <t>区域报表</t>
+  </si>
+  <si>
+    <t>办公</t>
+  </si>
+  <si>
+    <t>考勤记录</t>
+  </si>
+  <si>
+    <t>考勤记录批量删除</t>
+  </si>
+  <si>
+    <t>每日考勤</t>
+  </si>
+  <si>
+    <t>新增考勤</t>
+  </si>
+  <si>
+    <t>查询考勤</t>
+  </si>
+  <si>
+    <t>修改考勤</t>
+  </si>
+  <si>
+    <t>删除考勤</t>
+  </si>
+  <si>
+    <t>月考勤</t>
+  </si>
+  <si>
+    <t>比赛结果</t>
+  </si>
+  <si>
+    <t>删除（支持批量删除）</t>
   </si>
   <si>
     <t>疫情管控</t>
@@ -1091,9 +1127,6 @@
     <t>刘俊豪</t>
   </si>
   <si>
-    <t>张靖</t>
-  </si>
-  <si>
     <t>绵阳市商业银行</t>
   </si>
 </sst>
@@ -1102,10 +1135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1144,37 +1177,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1197,15 +1199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,9 +1223,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1274,8 +1268,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,13 +1314,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1327,49 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,49 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1459,7 +1408,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1471,7 +1444,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,13 +1504,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,13 +1534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,26 +1612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1604,6 +1623,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,30 +1690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1670,16 +1698,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1688,137 +1727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1979,6 +2018,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2367,72 +2433,72 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
     <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="42.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="42.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="67" t="s">
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="67" t="s">
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="67" t="s">
+      <c r="D2" s="76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:4">
-      <c r="A4" s="67" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:4">
+      <c r="A4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="67" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:4">
+      <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-    </row>
-    <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="67" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:4">
+      <c r="A6" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2449,11 +2515,11 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.775" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.1333333333333" customWidth="1"/>
     <col min="4" max="4" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2483,7 +2549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
@@ -2493,21 +2559,21 @@
       <c r="C2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="36"/>
-      <c r="H2" s="58"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:8">
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="66" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="36" t="s">
@@ -2515,7 +2581,7 @@
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="36"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="45"/>
@@ -2529,9 +2595,9 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="36"/>
-      <c r="H4" s="58"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:8">
+      <c r="H4" s="67"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
@@ -2545,7 +2611,7 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="58"/>
+      <c r="H5" s="67"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="45"/>
@@ -2563,7 +2629,7 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="36"/>
-      <c r="H6" s="58"/>
+      <c r="H6" s="67"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="45"/>
@@ -2579,7 +2645,7 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="36"/>
-      <c r="H7" s="58"/>
+      <c r="H7" s="67"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="45"/>
@@ -2587,13 +2653,13 @@
       <c r="C8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="58"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="36"/>
-      <c r="H8" s="58"/>
+      <c r="H8" s="67"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="45"/>
@@ -2601,13 +2667,13 @@
       <c r="C9" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="58"/>
+      <c r="H9" s="67"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="45"/>
@@ -2615,19 +2681,19 @@
       <c r="C10" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="36"/>
-      <c r="H10" s="58"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="68" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="36" t="s">
@@ -2640,12 +2706,12 @@
         <v>22</v>
       </c>
       <c r="F11" s="29"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36"/>
-      <c r="B12" s="60"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="36" t="s">
         <v>40</v>
       </c>
@@ -2656,12 +2722,12 @@
         <v>22</v>
       </c>
       <c r="F12" s="29"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36"/>
-      <c r="B13" s="60"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="36" t="s">
         <v>42</v>
       </c>
@@ -2670,62 +2736,62 @@
         <v>22</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:8">
-      <c r="A14" s="61" t="s">
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="71" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="72" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="29"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-    </row>
-    <row r="15" ht="15.6" spans="1:8">
-      <c r="A15" s="64"/>
-      <c r="B15" s="65"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:8">
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="72" t="s">
         <v>47</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="29"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:8">
-      <c r="A16" s="66" t="s">
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="66" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="29"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H16">
@@ -2753,30 +2819,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.6296296296296" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.8796296296296" style="43" customWidth="1"/>
-    <col min="4" max="4" width="51.3796296296296" style="43" customWidth="1"/>
+    <col min="1" max="1" width="18.1333333333333" style="43" customWidth="1"/>
+    <col min="2" max="2" width="25.6333333333333" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.8833333333333" style="43" customWidth="1"/>
+    <col min="4" max="4" width="51.3833333333333" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="6" width="15.8888888888889" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.6296296296296" style="43" customWidth="1"/>
+    <col min="6" max="6" width="15.8916666666667" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.6333333333333" style="43" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
     <col min="9" max="10" width="9" style="43"/>
     <col min="11" max="11" width="21.75" style="43" customWidth="1"/>
     <col min="12" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="57.6" spans="1:11">
+    <row r="1" ht="54" spans="1:11">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -2808,7 +2874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
@@ -2832,7 +2898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:8">
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="36"/>
       <c r="B3" s="45" t="s">
         <v>59</v>
@@ -2864,7 +2930,7 @@
       </c>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" ht="15.6" spans="1:8">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
@@ -2887,7 +2953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:8">
+    <row r="6" ht="14.25" spans="1:8">
       <c r="A6" s="36"/>
       <c r="B6" s="45" t="s">
         <v>66</v>
@@ -2904,7 +2970,7 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" ht="15.6" spans="1:8">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7" s="36"/>
       <c r="B7" s="45" t="s">
         <v>67</v>
@@ -3244,7 +3310,7 @@
         <v>57</v>
       </c>
       <c r="F27" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H27" s="48" t="s">
         <v>65</v>
@@ -3254,14 +3320,14 @@
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F28" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H28" s="48"/>
     </row>
@@ -3269,14 +3335,14 @@
       <c r="A29" s="54"/>
       <c r="B29" s="54"/>
       <c r="C29" s="51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D29" s="51"/>
       <c r="E29" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H29" s="48"/>
     </row>
@@ -3284,14 +3350,14 @@
       <c r="A30" s="54"/>
       <c r="B30" s="54"/>
       <c r="C30" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="51"/>
       <c r="E30" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H30" s="48"/>
     </row>
@@ -3299,14 +3365,14 @@
       <c r="A31" s="54"/>
       <c r="B31" s="54"/>
       <c r="C31" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="51"/>
       <c r="E31" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F31" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H31" s="48"/>
     </row>
@@ -3314,26 +3380,26 @@
       <c r="A32" s="54"/>
       <c r="B32" s="54"/>
       <c r="C32" s="51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="51"/>
       <c r="E32" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50" t="s">
@@ -3351,7 +3417,7 @@
       <c r="A34" s="36"/>
       <c r="B34" s="50"/>
       <c r="C34" s="50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="50" t="s">
@@ -3367,7 +3433,7 @@
       <c r="A35" s="36"/>
       <c r="B35" s="50"/>
       <c r="C35" s="50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="50" t="s">
@@ -3383,7 +3449,7 @@
       <c r="A36" s="36"/>
       <c r="B36" s="50"/>
       <c r="C36" s="50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="50" t="s">
@@ -3399,7 +3465,7 @@
       <c r="A37" s="36"/>
       <c r="B37" s="50"/>
       <c r="C37" s="50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="50" t="s">
@@ -3415,7 +3481,7 @@
       <c r="A38" s="36"/>
       <c r="B38" s="50"/>
       <c r="C38" s="50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="50" t="s">
@@ -3431,7 +3497,7 @@
       <c r="A39" s="36"/>
       <c r="B39" s="50"/>
       <c r="C39" s="50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="50" t="s">
@@ -3447,7 +3513,7 @@
       <c r="A40" s="36"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="50" t="s">
@@ -3462,16 +3528,16 @@
     <row r="41" spans="1:8">
       <c r="A41" s="36"/>
       <c r="B41" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H41" s="48" t="s">
@@ -3482,13 +3548,13 @@
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D42" s="49"/>
       <c r="E42" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H42" s="48"/>
@@ -3497,13 +3563,13 @@
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="48"/>
@@ -3512,13 +3578,13 @@
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="43" t="s">
+      <c r="F44" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H44" s="48"/>
@@ -3527,13 +3593,13 @@
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H45" s="48"/>
@@ -3541,16 +3607,16 @@
     <row r="46" spans="1:8">
       <c r="A46" s="36"/>
       <c r="B46" s="36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H46" s="48" t="s">
@@ -3561,13 +3627,13 @@
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H47" s="48"/>
@@ -3576,13 +3642,13 @@
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H48" s="48"/>
@@ -3591,13 +3657,13 @@
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H49" s="48"/>
@@ -3606,15 +3672,15 @@
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D50" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H50" s="48"/>
@@ -3623,15 +3689,15 @@
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E51" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H51" s="48"/>
@@ -3640,13 +3706,13 @@
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="43" t="s">
+      <c r="F52" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H52" s="48"/>
@@ -3655,33 +3721,33 @@
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="36"/>
       <c r="E53" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F53" s="43" t="s">
+      <c r="F53" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H53" s="48"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="50" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="52" t="s">
-        <v>6</v>
+      <c r="F54" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="55" t="s">
@@ -3692,14 +3758,14 @@
       <c r="A55" s="50"/>
       <c r="B55" s="50"/>
       <c r="C55" s="50" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="52" t="s">
-        <v>6</v>
+      <c r="F55" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="55"/>
@@ -3708,14 +3774,14 @@
       <c r="A56" s="50"/>
       <c r="B56" s="50"/>
       <c r="C56" s="50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="52" t="s">
-        <v>6</v>
+      <c r="F56" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="G56" s="52"/>
       <c r="H56" s="55"/>
@@ -3724,14 +3790,14 @@
       <c r="A57" s="50"/>
       <c r="B57" s="50"/>
       <c r="C57" s="50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="52" t="s">
-        <v>6</v>
+      <c r="F57" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="55"/>
@@ -3740,16 +3806,16 @@
       <c r="A58" s="50"/>
       <c r="B58" s="50"/>
       <c r="C58" s="50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E58" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="52" t="s">
-        <v>6</v>
+      <c r="F58" s="43" t="s">
+        <v>95</v>
       </c>
       <c r="G58" s="52"/>
       <c r="H58" s="55"/>
@@ -3757,10 +3823,10 @@
     <row r="59" spans="1:8">
       <c r="A59" s="50"/>
       <c r="B59" s="50" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="50" t="s">
@@ -3778,7 +3844,7 @@
       <c r="A60" s="50"/>
       <c r="B60" s="50"/>
       <c r="C60" s="50" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="50" t="s">
@@ -3794,7 +3860,7 @@
       <c r="A61" s="50"/>
       <c r="B61" s="50"/>
       <c r="C61" s="50" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="50" t="s">
@@ -3810,7 +3876,7 @@
       <c r="A62" s="50"/>
       <c r="B62" s="50"/>
       <c r="C62" s="50" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="50" t="s">
@@ -3825,10 +3891,10 @@
     <row r="63" spans="1:8">
       <c r="A63" s="50"/>
       <c r="B63" s="50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="50" t="s">
@@ -3846,7 +3912,7 @@
       <c r="A64" s="50"/>
       <c r="B64" s="50"/>
       <c r="C64" s="50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D64" s="50"/>
       <c r="E64" s="50" t="s">
@@ -3862,7 +3928,7 @@
       <c r="A65" s="50"/>
       <c r="B65" s="50"/>
       <c r="C65" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D65" s="50"/>
       <c r="E65" s="50" t="s">
@@ -3878,7 +3944,7 @@
       <c r="A66" s="50"/>
       <c r="B66" s="50"/>
       <c r="C66" s="50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="50" t="s">
@@ -3894,7 +3960,7 @@
       <c r="A67" s="50"/>
       <c r="B67" s="50"/>
       <c r="C67" s="50" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="50" t="s">
@@ -3909,10 +3975,10 @@
     <row r="68" spans="1:8">
       <c r="A68" s="50"/>
       <c r="B68" s="50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="50" t="s">
@@ -3930,7 +3996,7 @@
       <c r="A69" s="50"/>
       <c r="B69" s="50"/>
       <c r="C69" s="50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="50" t="s">
@@ -3946,7 +4012,7 @@
       <c r="A70" s="50"/>
       <c r="B70" s="50"/>
       <c r="C70" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="50" t="s">
@@ -3962,7 +4028,7 @@
       <c r="A71" s="50"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="50" t="s">
@@ -3977,13 +4043,13 @@
     <row r="72" spans="1:8">
       <c r="A72" s="50"/>
       <c r="B72" s="50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D72" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E72" s="50" t="s">
         <v>57</v>
@@ -4000,7 +4066,7 @@
       <c r="A73" s="50"/>
       <c r="B73" s="50"/>
       <c r="C73" s="50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" s="50"/>
       <c r="E73" s="50" t="s">
@@ -4016,7 +4082,7 @@
       <c r="A74" s="50"/>
       <c r="B74" s="50"/>
       <c r="C74" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D74" s="50"/>
       <c r="E74" s="50" t="s">
@@ -4032,7 +4098,7 @@
       <c r="A75" s="50"/>
       <c r="B75" s="50"/>
       <c r="C75" s="50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="50" t="s">
@@ -4048,7 +4114,7 @@
       <c r="A76" s="50"/>
       <c r="B76" s="50"/>
       <c r="C76" s="50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="50" t="s">
@@ -4063,10 +4129,10 @@
     <row r="77" spans="1:8">
       <c r="A77" s="50"/>
       <c r="B77" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="50" t="s">
@@ -4084,7 +4150,7 @@
       <c r="A78" s="50"/>
       <c r="B78" s="50"/>
       <c r="C78" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="50" t="s">
@@ -4100,10 +4166,10 @@
       <c r="A79" s="50"/>
       <c r="B79" s="50"/>
       <c r="C79" s="50" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E79" s="50" t="s">
         <v>57</v>
@@ -4118,7 +4184,7 @@
       <c r="A80" s="50"/>
       <c r="B80" s="50"/>
       <c r="C80" s="50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D80" s="50"/>
       <c r="E80" s="50" t="s">
@@ -4134,7 +4200,7 @@
       <c r="A81" s="50"/>
       <c r="B81" s="50"/>
       <c r="C81" s="50" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" s="50"/>
       <c r="E81" s="50" t="s">
@@ -4149,10 +4215,10 @@
     <row r="82" spans="1:8">
       <c r="A82" s="50"/>
       <c r="B82" s="50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="50"/>
       <c r="E82" s="50" t="s">
@@ -4170,7 +4236,7 @@
       <c r="A83" s="50"/>
       <c r="B83" s="50"/>
       <c r="C83" s="50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D83" s="50"/>
       <c r="E83" s="50" t="s">
@@ -4186,7 +4252,7 @@
       <c r="A84" s="50"/>
       <c r="B84" s="50"/>
       <c r="C84" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="50"/>
       <c r="E84" s="50" t="s">
@@ -4202,7 +4268,7 @@
       <c r="A85" s="50"/>
       <c r="B85" s="50"/>
       <c r="C85" s="50" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D85" s="50"/>
       <c r="E85" s="50" t="s">
@@ -4217,10 +4283,10 @@
     <row r="86" spans="1:8">
       <c r="A86" s="50"/>
       <c r="B86" s="50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D86" s="50"/>
       <c r="E86" s="50" t="s">
@@ -4238,7 +4304,7 @@
       <c r="A87" s="50"/>
       <c r="B87" s="50"/>
       <c r="C87" s="50" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D87" s="50"/>
       <c r="E87" s="50" t="s">
@@ -4254,7 +4320,7 @@
       <c r="A88" s="50"/>
       <c r="B88" s="50"/>
       <c r="C88" s="50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" s="50"/>
       <c r="E88" s="50" t="s">
@@ -4268,13 +4334,13 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" s="50" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D89" s="50"/>
       <c r="E89" s="50" t="s">
@@ -4292,7 +4358,7 @@
       <c r="A90" s="36"/>
       <c r="B90" s="50"/>
       <c r="C90" s="50" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D90" s="50"/>
       <c r="E90" s="50" t="s">
@@ -4307,10 +4373,10 @@
     <row r="91" spans="1:8">
       <c r="A91" s="36"/>
       <c r="B91" s="50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D91" s="50"/>
       <c r="E91" s="50" t="s">
@@ -4326,7 +4392,7 @@
       <c r="A92" s="36"/>
       <c r="B92" s="50"/>
       <c r="C92" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D92" s="50"/>
       <c r="E92" s="50" t="s">
@@ -4341,10 +4407,10 @@
     <row r="93" spans="1:8">
       <c r="A93" s="36"/>
       <c r="B93" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>176</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="D93" s="50"/>
       <c r="E93" s="50" t="s">
@@ -4360,7 +4426,7 @@
       <c r="A94" s="36"/>
       <c r="B94" s="50"/>
       <c r="C94" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D94" s="50"/>
       <c r="E94" s="50" t="s">
@@ -4375,10 +4441,10 @@
     <row r="95" spans="1:8">
       <c r="A95" s="36"/>
       <c r="B95" s="50" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D95" s="50"/>
       <c r="E95" s="50" t="s">
@@ -4394,7 +4460,7 @@
       <c r="A96" s="36"/>
       <c r="B96" s="50"/>
       <c r="C96" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D96" s="50"/>
       <c r="E96" s="50" t="s">
@@ -4409,10 +4475,10 @@
     <row r="97" spans="1:8">
       <c r="A97" s="36"/>
       <c r="B97" s="50" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D97" s="50"/>
       <c r="E97" s="50" t="s">
@@ -4428,7 +4494,7 @@
       <c r="A98" s="36"/>
       <c r="B98" s="50"/>
       <c r="C98" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D98" s="50"/>
       <c r="E98" s="50" t="s">
@@ -4443,10 +4509,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="36"/>
       <c r="B99" s="50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D99" s="50"/>
       <c r="E99" s="50" t="s">
@@ -4461,10 +4527,10 @@
     <row r="100" spans="1:8">
       <c r="A100" s="36"/>
       <c r="B100" s="50" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D100" s="50"/>
       <c r="E100" s="50" t="s">
@@ -4480,7 +4546,7 @@
       <c r="A101" s="36"/>
       <c r="B101" s="50"/>
       <c r="C101" s="50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D101" s="50"/>
       <c r="E101" s="50" t="s">
@@ -4495,10 +4561,10 @@
     <row r="102" spans="1:8">
       <c r="A102" s="36"/>
       <c r="B102" s="50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D102" s="50"/>
       <c r="E102" s="50" t="s">
@@ -4511,46 +4577,44 @@
       <c r="H102" s="55"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B103" s="50" t="s">
+      <c r="A103" s="57" t="s">
         <v>183</v>
       </c>
+      <c r="B103" s="58" t="s">
+        <v>184</v>
+      </c>
       <c r="C103" s="50" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="D103" s="50"/>
       <c r="E103" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F103" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G103" s="48"/>
-      <c r="H103" s="55" t="s">
-        <v>72</v>
-      </c>
+      <c r="H103" s="55"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="36"/>
-      <c r="B104" s="50"/>
+      <c r="A104" s="59"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="50" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D104" s="50"/>
       <c r="E104" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F104" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G104" s="48"/>
       <c r="H104" s="55"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="36"/>
-      <c r="B105" s="50"/>
+      <c r="A105" s="59"/>
+      <c r="B105" s="61"/>
       <c r="C105" s="50" t="s">
         <v>185</v>
       </c>
@@ -4559,47 +4623,48 @@
         <v>57</v>
       </c>
       <c r="F105" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G105" s="48"/>
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="36"/>
-      <c r="B106" s="50"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="58" t="s">
+        <v>186</v>
+      </c>
       <c r="C106" s="50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G106" s="48"/>
       <c r="H106" s="55"/>
     </row>
-    <row r="107" ht="33" customHeight="1" spans="1:8">
-      <c r="A107" s="36"/>
-      <c r="B107" s="50"/>
+    <row r="107" spans="1:8">
+      <c r="A107" s="59"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="D107" s="50" t="s">
         <v>188</v>
       </c>
+      <c r="D107" s="50"/>
       <c r="E107" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F107" s="43" t="s">
-        <v>6</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="G107" s="48"/>
       <c r="H107" s="55"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="36"/>
-      <c r="B108" s="50"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="50" t="s">
         <v>189</v>
       </c>
@@ -4608,14 +4673,14 @@
         <v>57</v>
       </c>
       <c r="F108" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G108" s="48"/>
       <c r="H108" s="55"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="36"/>
-      <c r="B109" s="50"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="61"/>
       <c r="C109" s="50" t="s">
         <v>190</v>
       </c>
@@ -4624,273 +4689,543 @@
         <v>57</v>
       </c>
       <c r="F109" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G109" s="48"/>
       <c r="H109" s="55"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="36"/>
-      <c r="B110" s="50"/>
+      <c r="A110" s="59"/>
+      <c r="B110" s="58" t="s">
+        <v>191</v>
+      </c>
       <c r="C110" s="50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D110" s="50"/>
       <c r="E110" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F110" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G110" s="48"/>
       <c r="H110" s="55"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="36"/>
-      <c r="B111" s="50"/>
+      <c r="A111" s="59"/>
+      <c r="B111" s="60"/>
       <c r="C111" s="50" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D111" s="50"/>
       <c r="E111" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G111" s="48"/>
       <c r="H111" s="55"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="36"/>
-      <c r="B112" s="50"/>
+      <c r="A112" s="59"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="50" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D112" s="50"/>
       <c r="E112" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F112" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G112" s="48"/>
       <c r="H112" s="55"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="36"/>
-      <c r="B113" s="50"/>
+      <c r="A113" s="59"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="50" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D113" s="50"/>
       <c r="E113" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F113" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G113" s="48"/>
       <c r="H113" s="55"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="36"/>
-      <c r="B114" s="50"/>
+      <c r="A114" s="59"/>
+      <c r="B114" s="61"/>
       <c r="C114" s="50" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D114" s="50"/>
       <c r="E114" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F114" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G114" s="48"/>
       <c r="H114" s="55"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="36"/>
-      <c r="B115" s="50"/>
+      <c r="A115" s="59"/>
+      <c r="B115" s="58" t="s">
+        <v>192</v>
+      </c>
       <c r="C115" s="50" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D115" s="50"/>
       <c r="E115" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F115" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G115" s="48"/>
       <c r="H115" s="55"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="36"/>
-      <c r="B116" s="50" t="s">
-        <v>197</v>
-      </c>
+      <c r="A116" s="59"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="50" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="D116" s="50"/>
       <c r="E116" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F116" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G116" s="48"/>
-      <c r="H116" s="55" t="s">
-        <v>79</v>
-      </c>
+      <c r="H116" s="55"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="36"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="59"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="50" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="D117" s="50"/>
       <c r="E117" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F117" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G117" s="48"/>
       <c r="H117" s="55"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="36"/>
-      <c r="B118" s="50"/>
+      <c r="A118" s="62"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D118" s="50" t="s">
-        <v>201</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D118" s="50"/>
       <c r="E118" s="50" t="s">
         <v>57</v>
       </c>
       <c r="F118" s="43" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="G118" s="48"/>
       <c r="H118" s="55"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="36"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50" t="s">
+      <c r="A119" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B119" s="63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" s="63"/>
+      <c r="E119" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="65"/>
+      <c r="H119" s="55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="63"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D120" s="63"/>
+      <c r="E120" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="65"/>
+      <c r="H120" s="55"/>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="63"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="65"/>
+      <c r="H121" s="55"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="63"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="63"/>
+      <c r="E122" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="65"/>
+      <c r="H122" s="55"/>
+    </row>
+    <row r="123" ht="33" customHeight="1" spans="1:8">
+      <c r="A123" s="63"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E123" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="64"/>
+      <c r="H123" s="55"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="63"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" s="63"/>
+      <c r="E124" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="65"/>
+      <c r="H124" s="55"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="63"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D125" s="63"/>
+      <c r="E125" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="65"/>
+      <c r="H125" s="55"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="63"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63" t="s">
         <v>203</v>
       </c>
-      <c r="E119" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="48"/>
-      <c r="H119" s="55"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="36"/>
-      <c r="B120" s="50" t="s">
+      <c r="D126" s="63"/>
+      <c r="E126" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="65"/>
+      <c r="H126" s="55"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="63"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="D127" s="63"/>
+      <c r="E127" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="65"/>
+      <c r="H127" s="55"/>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="63"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="63" t="s">
         <v>205</v>
       </c>
-      <c r="D120" s="50"/>
-      <c r="E120" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F120" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="48"/>
-      <c r="H120" s="55"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="36"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="50" t="s">
+      <c r="D128" s="63"/>
+      <c r="E128" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="65"/>
+      <c r="H128" s="55"/>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="48"/>
-      <c r="H121" s="55"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="36"/>
-      <c r="B122" s="50"/>
-      <c r="C122" s="50" t="s">
+      <c r="D129" s="63"/>
+      <c r="E129" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="65"/>
+      <c r="H129" s="55"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="63"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="48"/>
-      <c r="H122" s="55"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="36"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="50" t="s">
+      <c r="D130" s="63"/>
+      <c r="E130" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="65"/>
+      <c r="H130" s="55"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="63"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="D123" s="50"/>
-      <c r="E123" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="55"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="36" t="s">
+      <c r="D131" s="63"/>
+      <c r="E131" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="65"/>
+      <c r="H131" s="55"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="63"/>
+      <c r="B132" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C132" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="65"/>
+      <c r="H132" s="55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="63"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="D133" s="63"/>
+      <c r="E133" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="65"/>
+      <c r="H133" s="55"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="63"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" s="63" t="s">
+        <v>213</v>
+      </c>
+      <c r="E134" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="65"/>
+      <c r="H134" s="55"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="63"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="D135" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="E135" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="65"/>
+      <c r="H135" s="55"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="63"/>
+      <c r="B136" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="63" t="s">
+        <v>217</v>
+      </c>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="65"/>
+      <c r="H136" s="55"/>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137" s="63"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="63" t="s">
+        <v>218</v>
+      </c>
+      <c r="D137" s="63"/>
+      <c r="E137" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" s="65"/>
+      <c r="H137" s="55"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="63"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D138" s="63"/>
+      <c r="E138" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="65"/>
+      <c r="H138" s="55"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="63"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" s="63"/>
+      <c r="E139" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="64"/>
+      <c r="H139" s="55"/>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B124" s="36" t="s">
+      <c r="B140" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C124" s="36"/>
-      <c r="D124" s="36"/>
-      <c r="E124" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H124" s="55"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="55"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F124">
+  <autoFilter ref="A1:F140">
     <extLst/>
   </autoFilter>
-  <mergeCells count="58">
+  <mergeCells count="63">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A32"/>
     <mergeCell ref="A33:A53"/>
     <mergeCell ref="A54:A88"/>
     <mergeCell ref="A89:A102"/>
-    <mergeCell ref="A103:A123"/>
+    <mergeCell ref="A103:A118"/>
+    <mergeCell ref="A119:A139"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="B19:B26"/>
@@ -4912,16 +5247,20 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B98"/>
     <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B103:B115"/>
-    <mergeCell ref="B116:B119"/>
-    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B119:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B136:B139"/>
     <mergeCell ref="G33:G40"/>
     <mergeCell ref="G89:G102"/>
-    <mergeCell ref="G103:G106"/>
-    <mergeCell ref="G108:G111"/>
-    <mergeCell ref="G112:G115"/>
-    <mergeCell ref="G116:G119"/>
-    <mergeCell ref="G120:G122"/>
+    <mergeCell ref="G119:G122"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G136:G138"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H13"/>
@@ -4940,8 +5279,8 @@
     <mergeCell ref="H82:H85"/>
     <mergeCell ref="H86:H88"/>
     <mergeCell ref="H89:H102"/>
-    <mergeCell ref="H103:H115"/>
-    <mergeCell ref="H116:H124"/>
+    <mergeCell ref="H119:H131"/>
+    <mergeCell ref="H132:H140"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4960,13 +5299,13 @@
       <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.1333333333333" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.8833333333333" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="10.225" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4992,18 +5331,18 @@
         <v>18</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" ht="15.6" spans="1:8">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
       <c r="A2" s="22" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>57</v>
@@ -5013,17 +5352,17 @@
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="26" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" ht="15.6" spans="1:8">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:8">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>57</v>
@@ -5033,15 +5372,15 @@
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="26" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" ht="15.6" spans="1:8">
+    <row r="4" ht="14.25" spans="1:8">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>57</v>
@@ -5051,15 +5390,15 @@
       </c>
       <c r="F4" s="25"/>
       <c r="G4" s="26" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" ht="15.6" spans="1:8">
+    <row r="5" ht="14.25" spans="1:8">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>57</v>
@@ -5069,25 +5408,25 @@
       </c>
       <c r="F5" s="25"/>
       <c r="G5" s="26" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="28" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="30"/>
@@ -5097,13 +5436,13 @@
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="29" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="D7" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="30"/>
@@ -5113,13 +5452,13 @@
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D8" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="30"/>
@@ -5129,13 +5468,13 @@
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
       <c r="C9" s="29" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="D9" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="30"/>
@@ -5145,13 +5484,13 @@
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="30"/>
@@ -5161,13 +5500,13 @@
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="30"/>
@@ -5177,13 +5516,13 @@
       <c r="A12" s="28"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D12" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="30"/>
@@ -5193,13 +5532,13 @@
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
       <c r="C13" s="29" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30"/>
@@ -5209,13 +5548,13 @@
       <c r="A14" s="28"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="30"/>
@@ -5224,16 +5563,16 @@
     <row r="15" spans="1:8">
       <c r="A15" s="28"/>
       <c r="B15" s="28" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D15" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F15" s="29"/>
       <c r="G15" s="30"/>
@@ -5243,13 +5582,13 @@
       <c r="A16" s="28"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D16" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="30"/>
@@ -5259,13 +5598,13 @@
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="29" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="30"/>
@@ -5275,13 +5614,13 @@
       <c r="A18" s="28"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D18" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="30"/>
@@ -5291,13 +5630,13 @@
       <c r="A19" s="28"/>
       <c r="B19" s="28"/>
       <c r="C19" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>236</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>224</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
@@ -5307,13 +5646,13 @@
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="26" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D20" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="30"/>
@@ -5323,13 +5662,13 @@
       <c r="A21" s="28"/>
       <c r="B21" s="28"/>
       <c r="C21" s="26" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D21" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="30"/>
@@ -5339,13 +5678,13 @@
       <c r="A22" s="28"/>
       <c r="B22" s="28"/>
       <c r="C22" s="26" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D22" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F22" s="29"/>
       <c r="G22" s="30"/>
@@ -5355,13 +5694,13 @@
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
       <c r="C23" s="26" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="30"/>
@@ -5370,16 +5709,16 @@
     <row r="24" spans="1:8">
       <c r="A24" s="28"/>
       <c r="B24" s="28" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F24" s="29"/>
       <c r="G24" s="30"/>
@@ -5389,13 +5728,13 @@
       <c r="A25" s="28"/>
       <c r="B25" s="28"/>
       <c r="C25" s="29" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D25" s="29" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="F25" s="29"/>
       <c r="G25" s="30"/>
@@ -5405,7 +5744,7 @@
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="29" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>22</v>
@@ -5419,7 +5758,7 @@
       <c r="A27" s="28"/>
       <c r="B27" s="28"/>
       <c r="C27" s="29" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>22</v>
@@ -5433,7 +5772,7 @@
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D28" s="29" t="s">
         <v>22</v>
@@ -5447,7 +5786,7 @@
       <c r="A29" s="28"/>
       <c r="B29" s="28"/>
       <c r="C29" s="29" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>22</v>
@@ -5461,7 +5800,7 @@
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="D30" s="29" t="s">
         <v>22</v>
@@ -5475,7 +5814,7 @@
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="29" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="D31" s="29" t="s">
         <v>22</v>
@@ -5485,15 +5824,15 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" ht="15.6" spans="1:8">
+    <row r="32" ht="14.25" spans="1:8">
       <c r="A32" s="31" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D32" s="29" t="s">
         <v>22</v>
@@ -5503,17 +5842,17 @@
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="30" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" ht="15.6" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="32" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D33" s="29" t="s">
         <v>22</v>
@@ -5523,15 +5862,15 @@
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="30" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" ht="15.6" spans="1:8">
+    <row r="34" ht="14.25" spans="1:8">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="32" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>22</v>
@@ -5541,15 +5880,15 @@
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="30" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" ht="15.6" spans="1:8">
+    <row r="35" ht="14.25" spans="1:8">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="32" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>22</v>
@@ -5559,19 +5898,19 @@
       </c>
       <c r="F35" s="32"/>
       <c r="G35" s="30" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H35" s="27"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="35" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>22</v>
@@ -5585,7 +5924,7 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="29" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="D37" s="29" t="s">
         <v>22</v>
@@ -5597,13 +5936,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C38" s="29" t="s">
         <v>258</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>246</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>22</v>
@@ -5617,7 +5956,7 @@
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="29" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="D39" s="29" t="s">
         <v>22</v>
@@ -5631,7 +5970,7 @@
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="29" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D40" s="29" t="s">
         <v>22</v>
@@ -5645,7 +5984,7 @@
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="29" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D41" s="29" t="s">
         <v>22</v>
@@ -5659,7 +5998,7 @@
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="29" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>22</v>
@@ -5673,7 +6012,7 @@
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="29" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D43" s="29" t="s">
         <v>22</v>
@@ -5687,7 +6026,7 @@
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="29" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>22</v>
@@ -5699,13 +6038,13 @@
     </row>
     <row r="45" hidden="1" spans="1:8">
       <c r="A45" s="39" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>22</v>
@@ -5719,7 +6058,7 @@
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="40" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>22</v>
@@ -5733,7 +6072,7 @@
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>22</v>
@@ -5747,7 +6086,7 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="40" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>22</v>
@@ -5759,13 +6098,13 @@
     </row>
     <row r="49" hidden="1" spans="1:8">
       <c r="A49" s="39" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>22</v>
@@ -5779,7 +6118,7 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="40" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>22</v>
@@ -5810,10 +6149,10 @@
     <row r="52" spans="1:8">
       <c r="A52" s="38"/>
       <c r="B52" s="35" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D52" s="29" t="s">
         <v>22</v>
@@ -5827,7 +6166,7 @@
       <c r="A53" s="37"/>
       <c r="B53" s="37"/>
       <c r="C53" s="29" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>22</v>
@@ -5882,16 +6221,16 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
-    <col min="4" max="5" width="17.3796296296296" customWidth="1"/>
+    <col min="3" max="3" width="17.1333333333333" customWidth="1"/>
+    <col min="4" max="5" width="17.3833333333333" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5914,9 +6253,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -5931,7 +6270,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="15.6" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>60</v>
@@ -5946,15 +6285,15 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>57</v>
@@ -5963,11 +6302,11 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="14.25" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>57</v>
@@ -5976,13 +6315,13 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" ht="15.6" spans="1:7">
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>57</v>
@@ -5991,7 +6330,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" ht="15.6" spans="1:7">
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -6006,15 +6345,15 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" ht="15.6" spans="1:7">
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="16" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -6023,11 +6362,11 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>57</v>
@@ -6036,13 +6375,13 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" ht="15.6" spans="1:7">
+    <row r="10" ht="14.25" spans="1:7">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>57</v>
@@ -6051,11 +6390,11 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" ht="15.6" spans="1:7">
+    <row r="11" ht="14.25" spans="1:7">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>57</v>
@@ -6064,13 +6403,13 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" ht="15.6" spans="1:7">
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>57</v>
@@ -6079,11 +6418,11 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>57</v>
@@ -6092,13 +6431,13 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>57</v>
@@ -6107,11 +6446,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>57</v>
@@ -6120,11 +6459,11 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" ht="15.6" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>57</v>
@@ -6133,11 +6472,11 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" ht="15.6" spans="1:7">
+    <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>57</v>
@@ -6146,11 +6485,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>57</v>
@@ -6159,11 +6498,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>57</v>
@@ -6172,11 +6511,11 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>57</v>
@@ -6210,16 +6549,16 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
+    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="28.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="28.1333333333333" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="21.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:7">
+    <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6242,15 +6581,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>57</v>
@@ -6259,7 +6598,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="15.6" spans="1:7">
+    <row r="3" ht="14.25" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -6274,7 +6613,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="15.6" spans="1:7">
+    <row r="4" ht="14.25" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>60</v>
@@ -6289,15 +6628,15 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="15.6" spans="1:7">
+    <row r="5" ht="15" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>57</v>
@@ -6305,16 +6644,16 @@
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" ht="15.6" spans="1:7">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>57</v>
@@ -6322,16 +6661,16 @@
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" ht="15.6" spans="1:7">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>57</v>
@@ -6339,16 +6678,16 @@
       <c r="E7" s="10"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" ht="15.6" spans="1:7">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>57</v>
@@ -6357,13 +6696,13 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" ht="15.6" spans="1:7">
+    <row r="9" ht="14.25" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>57</v>
@@ -6373,16 +6712,16 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" ht="15.6" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
@@ -6392,17 +6731,17 @@
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="H10" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" ht="15.6" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>57</v>
@@ -6412,13 +6751,13 @@
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" ht="15.6" spans="1:7">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
@@ -6431,15 +6770,15 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
+    <row r="13" ht="14.25" spans="1:7">
       <c r="A13" s="8" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>57</v>
@@ -6448,11 +6787,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" ht="15.6" spans="1:7">
+    <row r="14" ht="14.25" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>57</v>
@@ -6461,11 +6800,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
+    <row r="15" ht="14.25" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>57</v>
@@ -6474,13 +6813,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" ht="15.6" spans="1:7">
+    <row r="16" ht="14.25" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>57</v>
@@ -6489,11 +6828,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" ht="15.6" spans="1:7">
+    <row r="17" ht="14.25" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>57</v>
@@ -6502,13 +6841,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" ht="15.6" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>57</v>
@@ -6517,11 +6856,11 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
+    <row r="19" ht="14.25" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
@@ -6530,11 +6869,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" ht="15.6" spans="1:7">
+    <row r="20" ht="14.25" spans="1:7">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>57</v>
@@ -6543,13 +6882,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" ht="15.6" spans="1:7">
+    <row r="21" ht="14.25" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>57</v>
@@ -6558,13 +6897,13 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="15.6" spans="1:6">
+    <row r="22" ht="14.25" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>57</v>
@@ -6596,19 +6935,19 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.3796296296296" customWidth="1"/>
+    <col min="1" max="1" width="13.3833333333333" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
-    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
-    <col min="5" max="5" width="11.6296296296296" customWidth="1"/>
-    <col min="7" max="7" width="14.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="11.1333333333333" customWidth="1"/>
+    <col min="4" max="4" width="16.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6621,22 +6960,22 @@
         <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -6647,19 +6986,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>349</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:1">

--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -1136,9 +1136,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1185,37 +1185,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,47 +1207,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1285,15 +1237,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,16 +1269,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,13 +1366,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,6 +1438,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1402,13 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,37 +1486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,61 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,7 +1534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,6 +1612,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1627,50 +1636,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1693,8 +1663,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,151 +1679,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2433,14 +2433,14 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="20.3796296296296" customWidth="1"/>
     <col min="2" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="42.6333333333333" customWidth="1"/>
+    <col min="4" max="4" width="42.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
+    <row r="1" ht="15.6" spans="1:4">
       <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:4">
+    <row r="2" ht="15.6" spans="1:4">
       <c r="A2" s="76" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" ht="15.6" spans="1:4">
       <c r="A3" s="76" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2476,7 @@
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
     </row>
-    <row r="4" ht="14.25" spans="1:4">
+    <row r="4" ht="15.6" spans="1:4">
       <c r="A4" s="76" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
     </row>
-    <row r="5" ht="14.25" spans="1:4">
+    <row r="5" ht="15.6" spans="1:4">
       <c r="A5" s="76" t="s">
         <v>9</v>
       </c>
@@ -2492,7 +2492,7 @@
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
     </row>
-    <row r="6" ht="14.25" spans="1:4">
+    <row r="6" ht="15.6" spans="1:4">
       <c r="A6" s="76" t="s">
         <v>10</v>
       </c>
@@ -2515,11 +2515,11 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="10.775" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.1296296296296" customWidth="1"/>
     <col min="4" max="4" width="54.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2549,7 +2549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="45" t="s">
         <v>19</v>
       </c>
@@ -2567,7 +2567,7 @@
       <c r="G2" s="36"/>
       <c r="H2" s="67"/>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="45"/>
       <c r="B3" s="45"/>
       <c r="C3" s="44" t="s">
@@ -2597,7 +2597,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="67"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="45"/>
       <c r="B5" s="45"/>
       <c r="C5" s="4" t="s">
@@ -2739,7 +2739,7 @@
       <c r="G13" s="67"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" ht="14.25" spans="1:8">
+    <row r="14" ht="15.6" spans="1:8">
       <c r="A14" s="70" t="s">
         <v>43</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
     </row>
-    <row r="15" ht="14.25" spans="1:8">
+    <row r="15" ht="15.6" spans="1:8">
       <c r="A15" s="73"/>
       <c r="B15" s="74"/>
       <c r="C15" s="4" t="s">
@@ -2775,7 +2775,7 @@
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" ht="15.6" spans="1:8">
       <c r="A16" s="75" t="s">
         <v>48</v>
       </c>
@@ -2822,27 +2822,27 @@
   <dimension ref="A1:K140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.1333333333333" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.6333333333333" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.8833333333333" style="43" customWidth="1"/>
-    <col min="4" max="4" width="51.3833333333333" style="43" customWidth="1"/>
+    <col min="1" max="1" width="18.1296296296296" style="43" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" style="43" customWidth="1"/>
+    <col min="3" max="3" width="28.8796296296296" style="43" customWidth="1"/>
+    <col min="4" max="4" width="51.3796296296296" style="43" customWidth="1"/>
     <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="6" width="15.8916666666667" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.6333333333333" style="43" customWidth="1"/>
+    <col min="6" max="6" width="15.8888888888889" style="43" customWidth="1"/>
+    <col min="7" max="7" width="20.6296296296296" style="43" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
     <col min="9" max="10" width="9" style="43"/>
     <col min="11" max="11" width="21.75" style="43" customWidth="1"/>
     <col min="12" max="16384" width="9" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" spans="1:11">
+    <row r="1" ht="57.6" spans="1:11">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="36"/>
       <c r="B3" s="45" t="s">
         <v>59</v>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H4" s="48"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" ht="15.6" spans="1:8">
       <c r="A6" s="36"/>
       <c r="B6" s="45" t="s">
         <v>66</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="H6" s="48"/>
     </row>
-    <row r="7" ht="14.25" spans="1:8">
+    <row r="7" ht="15.6" spans="1:8">
       <c r="A7" s="36"/>
       <c r="B7" s="45" t="s">
         <v>67</v>
@@ -3001,7 +3001,7 @@
       <c r="E8" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="46" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="52"/>
@@ -3185,7 +3185,7 @@
       <c r="E19" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F19" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="48" t="s">
@@ -3202,7 +3202,7 @@
       <c r="E20" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="43" t="s">
+      <c r="F20" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="48"/>
@@ -3217,7 +3217,7 @@
       <c r="E21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="43" t="s">
+      <c r="F21" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="48"/>
@@ -3232,7 +3232,7 @@
       <c r="E22" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="43" t="s">
+      <c r="F22" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H22" s="48"/>
@@ -3247,7 +3247,7 @@
       <c r="E23" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H23" s="48"/>
@@ -3262,7 +3262,7 @@
       <c r="E24" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="43" t="s">
+      <c r="F24" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H24" s="48"/>
@@ -3277,7 +3277,7 @@
       <c r="E25" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="43" t="s">
+      <c r="F25" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H25" s="48"/>
@@ -3292,7 +3292,7 @@
       <c r="E26" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="43" t="s">
+      <c r="F26" s="46" t="s">
         <v>6</v>
       </c>
       <c r="H26" s="48"/>
@@ -3746,8 +3746,8 @@
       <c r="E54" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F54" s="43" t="s">
-        <v>95</v>
+      <c r="F54" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="G54" s="52"/>
       <c r="H54" s="55" t="s">
@@ -3764,8 +3764,8 @@
       <c r="E55" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="43" t="s">
-        <v>95</v>
+      <c r="F55" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="55"/>
@@ -3780,8 +3780,8 @@
       <c r="E56" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="43" t="s">
-        <v>95</v>
+      <c r="F56" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="G56" s="52"/>
       <c r="H56" s="55"/>
@@ -3796,8 +3796,8 @@
       <c r="E57" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="43" t="s">
-        <v>95</v>
+      <c r="F57" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="55"/>
@@ -3814,8 +3814,8 @@
       <c r="E58" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="43" t="s">
-        <v>95</v>
+      <c r="F58" s="46" t="s">
+        <v>6</v>
       </c>
       <c r="G58" s="52"/>
       <c r="H58" s="55"/>
@@ -5299,13 +5299,13 @@
       <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.1296296296296" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="18.8833333333333" customWidth="1"/>
+    <col min="3" max="3" width="18.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="15.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.225" customWidth="1"/>
+    <col min="8" max="8" width="10.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5334,7 +5334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="22" t="s">
         <v>222</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
+    <row r="3" ht="15.6" spans="1:8">
       <c r="A3" s="22"/>
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="H3" s="27"/>
     </row>
-    <row r="4" ht="14.25" spans="1:8">
+    <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="22"/>
       <c r="B4" s="22"/>
       <c r="C4" s="23" t="s">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="23" t="s">
@@ -5824,7 +5824,7 @@
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
     </row>
-    <row r="32" ht="14.25" spans="1:8">
+    <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="31" t="s">
         <v>256</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="33" ht="14.25" spans="1:8">
+    <row r="33" ht="15.6" spans="1:8">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="32" t="s">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="H33" s="27"/>
     </row>
-    <row r="34" ht="14.25" spans="1:8">
+    <row r="34" ht="15.6" spans="1:8">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="32" t="s">
@@ -5884,7 +5884,7 @@
       </c>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" ht="14.25" spans="1:8">
+    <row r="35" ht="15.6" spans="1:8">
       <c r="A35" s="33"/>
       <c r="B35" s="34"/>
       <c r="C35" s="32" t="s">
@@ -6221,16 +6221,16 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="17.1333333333333" customWidth="1"/>
-    <col min="4" max="5" width="17.3833333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.1296296296296" customWidth="1"/>
+    <col min="4" max="5" width="17.3796296296296" customWidth="1"/>
     <col min="6" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>291</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>60</v>
@@ -6285,7 +6285,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>292</v>
       </c>
@@ -6302,7 +6302,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="14.25" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5" t="s">
@@ -6315,7 +6315,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>295</v>
@@ -6330,7 +6330,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>50</v>
@@ -6345,7 +6345,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="16" t="s">
         <v>297</v>
       </c>
@@ -6362,7 +6362,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="18"/>
       <c r="B9" s="17"/>
       <c r="C9" s="12" t="s">
@@ -6375,7 +6375,7 @@
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" ht="14.25" spans="1:7">
+    <row r="10" ht="15.6" spans="1:7">
       <c r="A10" s="18"/>
       <c r="B10" s="2" t="s">
         <v>301</v>
@@ -6390,7 +6390,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" ht="14.25" spans="1:7">
+    <row r="11" ht="15.6" spans="1:7">
       <c r="A11" s="18"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5" t="s">
@@ -6403,7 +6403,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="18"/>
       <c r="B12" s="2" t="s">
         <v>304</v>
@@ -6418,7 +6418,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="18"/>
       <c r="B13" s="2"/>
       <c r="C13" s="5" t="s">
@@ -6431,7 +6431,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="18"/>
       <c r="B14" s="2" t="s">
         <v>307</v>
@@ -6446,7 +6446,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="18"/>
       <c r="B15" s="2"/>
       <c r="C15" s="5" t="s">
@@ -6459,7 +6459,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="18"/>
       <c r="B16" s="2"/>
       <c r="C16" s="5" t="s">
@@ -6472,7 +6472,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="18"/>
       <c r="B17" s="2"/>
       <c r="C17" s="5" t="s">
@@ -6485,7 +6485,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="18"/>
       <c r="B18" s="2"/>
       <c r="C18" s="5" t="s">
@@ -6498,7 +6498,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="18"/>
       <c r="B19" s="2"/>
       <c r="C19" s="5" t="s">
@@ -6511,7 +6511,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="19"/>
       <c r="B20" s="2"/>
       <c r="C20" s="5" t="s">
@@ -6549,16 +6549,16 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="11.8833333333333" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="28.1333333333333" customWidth="1"/>
+    <col min="3" max="3" width="28.1296296296296" customWidth="1"/>
     <col min="4" max="5" width="16" customWidth="1"/>
-    <col min="7" max="7" width="21.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
+    <row r="1" ht="15.6" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
+    <row r="2" ht="15.6" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>291</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:7">
+    <row r="3" ht="15.6" spans="1:7">
       <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -6613,7 +6613,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" ht="14.25" spans="1:7">
+    <row r="4" ht="15.6" spans="1:7">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>60</v>
@@ -6628,7 +6628,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" ht="15" spans="1:7">
+    <row r="5" ht="15.6" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>316</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:7">
+    <row r="6" ht="15.6" spans="1:7">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>320</v>
@@ -6664,7 +6664,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:7">
+    <row r="7" ht="15.6" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="8" t="s">
         <v>323</v>
@@ -6681,7 +6681,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:7">
+    <row r="8" ht="15.6" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
         <v>326</v>
@@ -6696,7 +6696,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" ht="14.25" spans="1:7">
+    <row r="9" ht="15.6" spans="1:7">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
         <v>292</v>
@@ -6715,7 +6715,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:8">
+    <row r="10" ht="15.6" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="8" t="s">
         <v>329</v>
@@ -6737,7 +6737,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:8">
+    <row r="11" ht="15.6" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10" t="s">
@@ -6757,7 +6757,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:7">
+    <row r="12" ht="15.6" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="10" t="s">
@@ -6770,7 +6770,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" ht="14.25" spans="1:7">
+    <row r="13" ht="15.6" spans="1:7">
       <c r="A13" s="8" t="s">
         <v>336</v>
       </c>
@@ -6787,7 +6787,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" ht="14.25" spans="1:7">
+    <row r="14" ht="15.6" spans="1:7">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="10" t="s">
@@ -6800,7 +6800,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" ht="14.25" spans="1:7">
+    <row r="15" ht="15.6" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="10" t="s">
@@ -6813,7 +6813,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" ht="14.25" spans="1:7">
+    <row r="16" ht="15.6" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="8" t="s">
         <v>341</v>
@@ -6828,7 +6828,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" ht="14.25" spans="1:7">
+    <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="10" t="s">
@@ -6841,7 +6841,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" ht="15.6" spans="1:7">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>344</v>
@@ -6856,7 +6856,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" ht="14.25" spans="1:7">
+    <row r="19" ht="15.6" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="10" t="s">
@@ -6869,7 +6869,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" ht="14.25" spans="1:7">
+    <row r="20" ht="15.6" spans="1:7">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="10" t="s">
@@ -6882,7 +6882,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" ht="14.25" spans="1:7">
+    <row r="21" ht="15.6" spans="1:7">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>298</v>
@@ -6897,7 +6897,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" ht="14.25" spans="1:6">
+    <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
         <v>349</v>
@@ -6935,14 +6935,14 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.3833333333333" customWidth="1"/>
+    <col min="1" max="1" width="13.3796296296296" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="11.1333333333333" customWidth="1"/>
-    <col min="4" max="4" width="16.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="11.6333333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="16.6296296296296" customWidth="1"/>
+    <col min="5" max="5" width="11.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -1135,10 +1135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1185,7 +1185,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,14 +1206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1214,7 +1214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,11 +1236,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1252,24 +1291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,41 +1314,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1348,13 +1348,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,19 +1366,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,7 +1426,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,13 +1480,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1426,127 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,15 +1636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1655,41 +1646,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1709,16 +1665,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1727,137 +1727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1922,41 +1922,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1969,18 +1970,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2010,7 +1999,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2441,64 +2430,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="73" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="73" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" ht="15.6" spans="1:4">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
     </row>
     <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
     </row>
     <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2524,274 +2513,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="64"/>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="66" t="s">
+      <c r="D3" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="67"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="67"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="64"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="67"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="67"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="67"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44" t="s">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="36" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44" t="s">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="36" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="67"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="67"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="36" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="36"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
     </row>
     <row r="14" ht="15.6" spans="1:8">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" ht="15.6" spans="1:8">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
     </row>
     <row r="16" ht="15.6" spans="1:8">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="36" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H16">
@@ -2821,2397 +2810,2397 @@
   <sheetPr/>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F53" sqref="F53:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" style="43" customWidth="1"/>
-    <col min="2" max="2" width="25.6296296296296" style="43" customWidth="1"/>
-    <col min="3" max="3" width="28.8796296296296" style="43" customWidth="1"/>
-    <col min="4" max="4" width="51.3796296296296" style="43" customWidth="1"/>
-    <col min="5" max="5" width="9" style="43"/>
-    <col min="6" max="6" width="15.8888888888889" style="43" customWidth="1"/>
-    <col min="7" max="7" width="20.6296296296296" style="43" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="43" customWidth="1"/>
-    <col min="9" max="10" width="9" style="43"/>
-    <col min="11" max="11" width="21.75" style="43" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="43"/>
+    <col min="1" max="1" width="18.1296296296296" style="40" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" style="40" customWidth="1"/>
+    <col min="3" max="3" width="28.8796296296296" style="40" customWidth="1"/>
+    <col min="4" max="4" width="51.3796296296296" style="40" customWidth="1"/>
+    <col min="5" max="5" width="9" style="40"/>
+    <col min="6" max="6" width="15.8888888888889" style="40" customWidth="1"/>
+    <col min="7" max="7" width="20.6296296296296" style="40" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="40" customWidth="1"/>
+    <col min="9" max="10" width="9" style="40"/>
+    <col min="11" max="11" width="21.75" style="40" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.6" spans="1:11">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="53" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="48" t="s">
+      <c r="E2" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="36"/>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="48"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="36"/>
-      <c r="B4" s="49" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="48"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="48" t="s">
+      <c r="E5" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
-      <c r="A6" s="36"/>
-      <c r="B6" s="45" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="48"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
-      <c r="A7" s="36"/>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="48"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="48" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="49"/>
+      <c r="H8" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="36"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="36"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="49"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="36"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="49"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="36"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="49"/>
+      <c r="H12" s="45"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="36"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="49"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="36"/>
-      <c r="B14" s="50" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="48" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="49"/>
+      <c r="H14" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="36"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="49"/>
+      <c r="H15" s="45"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="36"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="49"/>
+      <c r="H16" s="45"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="36"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="49"/>
+      <c r="H17" s="45"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="36"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="51"/>
-      <c r="E18" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="48" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="51" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="48"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="45"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="48"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="45"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="49" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="48"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="36"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="49" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="48"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="45"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="48"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="49" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="49"/>
-      <c r="E25" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="48"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="49" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="48"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="45"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="43" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="43" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="48"/>
+      <c r="H28" s="45"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="43" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="48"/>
+      <c r="H29" s="45"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="51"/>
-      <c r="E30" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="48"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="43" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="48"/>
+      <c r="H31" s="45"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="D32" s="48"/>
+      <c r="E32" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="48"/>
+      <c r="H32" s="45"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48" t="s">
+      <c r="D33" s="47"/>
+      <c r="E33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="45"/>
+      <c r="H33" s="45" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="36"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="36"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="45"/>
+      <c r="H35" s="45"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="36"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="48"/>
-      <c r="H36" s="48"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="36"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="36"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="45"/>
+      <c r="H38" s="45"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="36"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="36"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="36"/>
-      <c r="B41" s="36" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="48" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="45" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="49" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="48"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="45"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="48"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="48"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="45"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="48"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="45"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="48" t="s">
+      <c r="D46" s="37"/>
+      <c r="E46" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="45" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="48"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="48"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="36"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="48"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="45"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="36"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="48"/>
+      <c r="E50" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="45"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="48"/>
+      <c r="E51" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="45"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="36"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="48"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="45"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="36"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="48"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="45"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="50" t="s">
+      <c r="A54" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="55" t="s">
+      <c r="D54" s="47"/>
+      <c r="E54" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="49"/>
+      <c r="H54" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="50"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50" t="s">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="52"/>
-      <c r="H55" s="55"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="49"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="52"/>
-      <c r="H56" s="55"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="49"/>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50" t="s">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="55"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="49"/>
+      <c r="H57" s="52"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50" t="s">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="52"/>
-      <c r="H58" s="55"/>
+      <c r="E58" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="49"/>
+      <c r="H58" s="52"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="50"/>
-      <c r="B59" s="50" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="52"/>
-      <c r="H59" s="55" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="49"/>
+      <c r="H59" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="52"/>
-      <c r="H60" s="55"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="49"/>
+      <c r="H60" s="52"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="50"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="52"/>
-      <c r="H61" s="55"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="49"/>
+      <c r="H61" s="52"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="52"/>
-      <c r="H62" s="55"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="49"/>
+      <c r="H62" s="52"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50" t="s">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="52"/>
-      <c r="H63" s="55" t="s">
+      <c r="D63" s="47"/>
+      <c r="E63" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="49"/>
+      <c r="H63" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="52"/>
-      <c r="H64" s="55"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="49"/>
+      <c r="H64" s="52"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50" t="s">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="52"/>
-      <c r="H65" s="55"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="49"/>
+      <c r="H65" s="52"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="50"/>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50" t="s">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="50"/>
-      <c r="E66" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="55"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="49"/>
+      <c r="H66" s="52"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="50"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="50" t="s">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="55"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="49"/>
+      <c r="H67" s="52"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50" t="s">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="50" t="s">
+      <c r="C68" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="55" t="s">
+      <c r="D68" s="47"/>
+      <c r="E68" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="49"/>
+      <c r="H68" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="50" t="s">
+      <c r="A69" s="47"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="55"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="49"/>
+      <c r="H69" s="52"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="50"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="50" t="s">
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="55"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="49"/>
+      <c r="H70" s="52"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="50" t="s">
+      <c r="A71" s="47"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="52"/>
-      <c r="H71" s="55"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="49"/>
+      <c r="H71" s="52"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50" t="s">
+      <c r="A72" s="47"/>
+      <c r="B72" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="50" t="s">
+      <c r="C72" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="50" t="s">
+      <c r="D72" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="52"/>
-      <c r="H72" s="55" t="s">
+      <c r="E72" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="49"/>
+      <c r="H72" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="50"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="50" t="s">
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="52"/>
-      <c r="H73" s="55"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="49"/>
+      <c r="H73" s="52"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50" t="s">
+      <c r="A74" s="47"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="52"/>
-      <c r="H74" s="55"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="49"/>
+      <c r="H74" s="52"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="50"/>
-      <c r="B75" s="50"/>
-      <c r="C75" s="50" t="s">
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="52"/>
-      <c r="H75" s="55"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="49"/>
+      <c r="H75" s="52"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50" t="s">
+      <c r="A76" s="47"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="52"/>
-      <c r="H76" s="55"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="49"/>
+      <c r="H76" s="52"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="50"/>
-      <c r="B77" s="50" t="s">
+      <c r="A77" s="47"/>
+      <c r="B77" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="50" t="s">
+      <c r="C77" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="52"/>
-      <c r="H77" s="55" t="s">
+      <c r="D77" s="47"/>
+      <c r="E77" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="49"/>
+      <c r="H77" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="50"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="50" t="s">
+      <c r="A78" s="47"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="52"/>
-      <c r="H78" s="55"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="49"/>
+      <c r="H78" s="52"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="50"/>
-      <c r="B79" s="50"/>
-      <c r="C79" s="50" t="s">
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="50" t="s">
+      <c r="D79" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="52"/>
-      <c r="H79" s="55"/>
+      <c r="E79" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="49"/>
+      <c r="H79" s="52"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="50"/>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50" t="s">
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="52"/>
-      <c r="H80" s="55"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="49"/>
+      <c r="H80" s="52"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="50"/>
-      <c r="B81" s="50"/>
-      <c r="C81" s="50" t="s">
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="52"/>
-      <c r="H81" s="55"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="49"/>
+      <c r="H81" s="52"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="50"/>
-      <c r="B82" s="50" t="s">
+      <c r="A82" s="47"/>
+      <c r="B82" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="50" t="s">
+      <c r="C82" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="52"/>
-      <c r="H82" s="55" t="s">
+      <c r="D82" s="47"/>
+      <c r="E82" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="49"/>
+      <c r="H82" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="50"/>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="52"/>
-      <c r="H83" s="55"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="49"/>
+      <c r="H83" s="52"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="50"/>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50" t="s">
+      <c r="A84" s="47"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="52"/>
-      <c r="H84" s="55"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="49"/>
+      <c r="H84" s="52"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="50"/>
-      <c r="B85" s="50"/>
-      <c r="C85" s="50" t="s">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="52"/>
-      <c r="H85" s="55"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="49"/>
+      <c r="H85" s="52"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="50"/>
-      <c r="B86" s="50" t="s">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="50" t="s">
+      <c r="C86" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="E86" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="52"/>
-      <c r="H86" s="55" t="s">
+      <c r="D86" s="47"/>
+      <c r="E86" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="49"/>
+      <c r="H86" s="52" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="50"/>
-      <c r="B87" s="50"/>
-      <c r="C87" s="50" t="s">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="52"/>
-      <c r="H87" s="55"/>
+      <c r="D87" s="47"/>
+      <c r="E87" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="49"/>
+      <c r="H87" s="52"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="50"/>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50" t="s">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="52"/>
-      <c r="H88" s="55"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="49"/>
+      <c r="H88" s="52"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="48"/>
-      <c r="H89" s="55" t="s">
+      <c r="D89" s="47"/>
+      <c r="E89" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="45"/>
+      <c r="H89" s="52" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="36"/>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50" t="s">
+      <c r="A90" s="37"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F90" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="48"/>
-      <c r="H90" s="55"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="45"/>
+      <c r="H90" s="52"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="36"/>
-      <c r="B91" s="50" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="48"/>
-      <c r="H91" s="55"/>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="45"/>
+      <c r="H91" s="52"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="36"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F92" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="48"/>
-      <c r="H92" s="55"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="45"/>
+      <c r="H92" s="52"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="36"/>
-      <c r="B93" s="50" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="48"/>
-      <c r="H93" s="55"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="45"/>
+      <c r="H93" s="52"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="36"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50" t="s">
+      <c r="A94" s="37"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="48"/>
-      <c r="H94" s="55"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="45"/>
+      <c r="H94" s="52"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="36"/>
-      <c r="B95" s="50" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="48"/>
-      <c r="H95" s="55"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="45"/>
+      <c r="H95" s="52"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="36"/>
-      <c r="B96" s="50"/>
-      <c r="C96" s="50" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="48"/>
-      <c r="H96" s="55"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="45"/>
+      <c r="H96" s="52"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="36"/>
-      <c r="B97" s="50" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="48"/>
-      <c r="H97" s="55"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="45"/>
+      <c r="H97" s="52"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="36"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="50" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="E98" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="48"/>
-      <c r="H98" s="55"/>
+      <c r="D98" s="47"/>
+      <c r="E98" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="45"/>
+      <c r="H98" s="52"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="36"/>
-      <c r="B99" s="50" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="47" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F99" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="48"/>
-      <c r="H99" s="55"/>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="45"/>
+      <c r="H99" s="52"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="36"/>
-      <c r="B100" s="50" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="48"/>
-      <c r="H100" s="55"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="45"/>
+      <c r="H100" s="52"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="36"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50" t="s">
+      <c r="A101" s="37"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F101" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="48"/>
-      <c r="H101" s="55"/>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="45"/>
+      <c r="H101" s="52"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="36"/>
-      <c r="B102" s="50" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="48"/>
-      <c r="H102" s="55"/>
+      <c r="D102" s="47"/>
+      <c r="E102" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="45"/>
+      <c r="H102" s="52"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="57" t="s">
+      <c r="A103" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="58" t="s">
+      <c r="B103" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" s="43" t="s">
+      <c r="D103" s="47"/>
+      <c r="E103" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G103" s="48"/>
-      <c r="H103" s="55"/>
+      <c r="G103" s="45"/>
+      <c r="H103" s="52"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="59"/>
-      <c r="B104" s="60"/>
-      <c r="C104" s="50" t="s">
+      <c r="A104" s="56"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F104" s="43" t="s">
+      <c r="D104" s="47"/>
+      <c r="E104" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G104" s="48"/>
-      <c r="H104" s="55"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="52"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="59"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="50" t="s">
+      <c r="A105" s="56"/>
+      <c r="B105" s="58"/>
+      <c r="C105" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="D105" s="50"/>
-      <c r="E105" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="43" t="s">
+      <c r="D105" s="47"/>
+      <c r="E105" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G105" s="48"/>
-      <c r="H105" s="55"/>
+      <c r="G105" s="45"/>
+      <c r="H105" s="52"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="59"/>
-      <c r="B106" s="58" t="s">
+      <c r="A106" s="56"/>
+      <c r="B106" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="43" t="s">
+      <c r="D106" s="47"/>
+      <c r="E106" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G106" s="48"/>
-      <c r="H106" s="55"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="52"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="59"/>
-      <c r="B107" s="60"/>
-      <c r="C107" s="50" t="s">
+      <c r="A107" s="56"/>
+      <c r="B107" s="57"/>
+      <c r="C107" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="50"/>
-      <c r="E107" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="43" t="s">
+      <c r="D107" s="47"/>
+      <c r="E107" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="48"/>
-      <c r="H107" s="55"/>
+      <c r="G107" s="45"/>
+      <c r="H107" s="52"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="59"/>
-      <c r="B108" s="60"/>
-      <c r="C108" s="50" t="s">
+      <c r="A108" s="56"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="50"/>
-      <c r="E108" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="43" t="s">
+      <c r="D108" s="47"/>
+      <c r="E108" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="48"/>
-      <c r="H108" s="55"/>
+      <c r="G108" s="45"/>
+      <c r="H108" s="52"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="59"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="50" t="s">
+      <c r="A109" s="56"/>
+      <c r="B109" s="58"/>
+      <c r="C109" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="50"/>
-      <c r="E109" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F109" s="43" t="s">
+      <c r="D109" s="47"/>
+      <c r="E109" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="48"/>
-      <c r="H109" s="55"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="52"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="59"/>
-      <c r="B110" s="58" t="s">
+      <c r="A110" s="56"/>
+      <c r="B110" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="43" t="s">
+      <c r="D110" s="47"/>
+      <c r="E110" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G110" s="48"/>
-      <c r="H110" s="55"/>
+      <c r="G110" s="45"/>
+      <c r="H110" s="52"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="59"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="50" t="s">
+      <c r="A111" s="56"/>
+      <c r="B111" s="57"/>
+      <c r="C111" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="43" t="s">
+      <c r="D111" s="47"/>
+      <c r="E111" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F111" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G111" s="48"/>
-      <c r="H111" s="55"/>
+      <c r="G111" s="45"/>
+      <c r="H111" s="52"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="59"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="50" t="s">
+      <c r="A112" s="56"/>
+      <c r="B112" s="57"/>
+      <c r="C112" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F112" s="43" t="s">
+      <c r="D112" s="47"/>
+      <c r="E112" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="48"/>
-      <c r="H112" s="55"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="52"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="59"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="50" t="s">
+      <c r="A113" s="56"/>
+      <c r="B113" s="57"/>
+      <c r="C113" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="50"/>
-      <c r="E113" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="43" t="s">
+      <c r="D113" s="47"/>
+      <c r="E113" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="48"/>
-      <c r="H113" s="55"/>
+      <c r="G113" s="45"/>
+      <c r="H113" s="52"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="59"/>
-      <c r="B114" s="61"/>
-      <c r="C114" s="50" t="s">
+      <c r="A114" s="56"/>
+      <c r="B114" s="58"/>
+      <c r="C114" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F114" s="43" t="s">
+      <c r="D114" s="47"/>
+      <c r="E114" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G114" s="48"/>
-      <c r="H114" s="55"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="52"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="59"/>
-      <c r="B115" s="58" t="s">
+      <c r="A115" s="56"/>
+      <c r="B115" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="50"/>
-      <c r="E115" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F115" s="43" t="s">
+      <c r="D115" s="47"/>
+      <c r="E115" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G115" s="48"/>
-      <c r="H115" s="55"/>
+      <c r="G115" s="45"/>
+      <c r="H115" s="52"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="59"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="50" t="s">
+      <c r="A116" s="56"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D116" s="50"/>
-      <c r="E116" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F116" s="43" t="s">
+      <c r="D116" s="47"/>
+      <c r="E116" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G116" s="48"/>
-      <c r="H116" s="55"/>
+      <c r="G116" s="45"/>
+      <c r="H116" s="52"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="59"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="50" t="s">
+      <c r="A117" s="56"/>
+      <c r="B117" s="57"/>
+      <c r="C117" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="50"/>
-      <c r="E117" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="43" t="s">
+      <c r="D117" s="47"/>
+      <c r="E117" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G117" s="48"/>
-      <c r="H117" s="55"/>
+      <c r="G117" s="45"/>
+      <c r="H117" s="52"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="62"/>
-      <c r="B118" s="61"/>
-      <c r="C118" s="50" t="s">
+      <c r="A118" s="59"/>
+      <c r="B118" s="58"/>
+      <c r="C118" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="43" t="s">
+      <c r="D118" s="47"/>
+      <c r="E118" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G118" s="48"/>
-      <c r="H118" s="55"/>
+      <c r="G118" s="45"/>
+      <c r="H118" s="52"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="63" t="s">
+      <c r="A119" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="63" t="s">
+      <c r="B119" s="60" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="63" t="s">
+      <c r="C119" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="63"/>
-      <c r="E119" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="65"/>
-      <c r="H119" s="55" t="s">
+      <c r="D119" s="60"/>
+      <c r="E119" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="62"/>
+      <c r="H119" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="63"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="63" t="s">
+      <c r="A120" s="60"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="D120" s="63"/>
-      <c r="E120" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F120" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="65"/>
-      <c r="H120" s="55"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="62"/>
+      <c r="H120" s="52"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="63"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="63" t="s">
+      <c r="A121" s="60"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="D121" s="63"/>
-      <c r="E121" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="65"/>
-      <c r="H121" s="55"/>
+      <c r="D121" s="60"/>
+      <c r="E121" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="62"/>
+      <c r="H121" s="52"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="63"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="63" t="s">
+      <c r="A122" s="60"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="D122" s="63"/>
-      <c r="E122" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="55"/>
+      <c r="D122" s="60"/>
+      <c r="E122" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="62"/>
+      <c r="H122" s="52"/>
     </row>
     <row r="123" ht="33" customHeight="1" spans="1:8">
-      <c r="A123" s="63"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="63" t="s">
+      <c r="A123" s="60"/>
+      <c r="B123" s="60"/>
+      <c r="C123" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="D123" s="63" t="s">
+      <c r="D123" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F123" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="64"/>
-      <c r="H123" s="55"/>
+      <c r="E123" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="61"/>
+      <c r="H123" s="52"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="63"/>
-      <c r="B124" s="63"/>
-      <c r="C124" s="63" t="s">
+      <c r="A124" s="60"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="60" t="s">
         <v>201</v>
       </c>
-      <c r="D124" s="63"/>
-      <c r="E124" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="65"/>
-      <c r="H124" s="55"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="62"/>
+      <c r="H124" s="52"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="63"/>
-      <c r="B125" s="63"/>
-      <c r="C125" s="63" t="s">
+      <c r="A125" s="60"/>
+      <c r="B125" s="60"/>
+      <c r="C125" s="60" t="s">
         <v>202</v>
       </c>
-      <c r="D125" s="63"/>
-      <c r="E125" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F125" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="65"/>
-      <c r="H125" s="55"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="62"/>
+      <c r="H125" s="52"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="63"/>
-      <c r="B126" s="63"/>
-      <c r="C126" s="63" t="s">
+      <c r="A126" s="60"/>
+      <c r="B126" s="60"/>
+      <c r="C126" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="D126" s="63"/>
-      <c r="E126" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F126" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="65"/>
-      <c r="H126" s="55"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="62"/>
+      <c r="H126" s="52"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="63"/>
-      <c r="B127" s="63"/>
-      <c r="C127" s="63" t="s">
+      <c r="A127" s="60"/>
+      <c r="B127" s="60"/>
+      <c r="C127" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D127" s="63"/>
-      <c r="E127" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F127" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="65"/>
-      <c r="H127" s="55"/>
+      <c r="D127" s="60"/>
+      <c r="E127" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="62"/>
+      <c r="H127" s="52"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="63"/>
-      <c r="B128" s="63"/>
-      <c r="C128" s="63" t="s">
+      <c r="A128" s="60"/>
+      <c r="B128" s="60"/>
+      <c r="C128" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F128" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="65"/>
-      <c r="H128" s="55"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="62"/>
+      <c r="H128" s="52"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="63"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="63" t="s">
+      <c r="A129" s="60"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="D129" s="63"/>
-      <c r="E129" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F129" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="65"/>
-      <c r="H129" s="55"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="62"/>
+      <c r="H129" s="52"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="63"/>
-      <c r="B130" s="63"/>
-      <c r="C130" s="63" t="s">
+      <c r="A130" s="60"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="D130" s="63"/>
-      <c r="E130" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="65"/>
-      <c r="H130" s="55"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="62"/>
+      <c r="H130" s="52"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="63"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="63" t="s">
+      <c r="A131" s="60"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60" t="s">
         <v>208</v>
       </c>
-      <c r="D131" s="63"/>
-      <c r="E131" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="65"/>
-      <c r="H131" s="55"/>
+      <c r="D131" s="60"/>
+      <c r="E131" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="62"/>
+      <c r="H131" s="52"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="63"/>
-      <c r="B132" s="63" t="s">
+      <c r="A132" s="60"/>
+      <c r="B132" s="60" t="s">
         <v>209</v>
       </c>
-      <c r="C132" s="63" t="s">
+      <c r="C132" s="60" t="s">
         <v>210</v>
       </c>
-      <c r="D132" s="63"/>
-      <c r="E132" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F132" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="65"/>
-      <c r="H132" s="55" t="s">
+      <c r="D132" s="60"/>
+      <c r="E132" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="62"/>
+      <c r="H132" s="52" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="63"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="63" t="s">
+      <c r="A133" s="60"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="63"/>
-      <c r="E133" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F133" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="65"/>
-      <c r="H133" s="55"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="62"/>
+      <c r="H133" s="52"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="63"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="63" t="s">
+      <c r="A134" s="60"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60" t="s">
         <v>212</v>
       </c>
-      <c r="D134" s="63" t="s">
+      <c r="D134" s="60" t="s">
         <v>213</v>
       </c>
-      <c r="E134" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F134" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="65"/>
-      <c r="H134" s="55"/>
+      <c r="E134" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="62"/>
+      <c r="H134" s="52"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="63"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63" t="s">
+      <c r="A135" s="60"/>
+      <c r="B135" s="60"/>
+      <c r="C135" s="60" t="s">
         <v>214</v>
       </c>
-      <c r="D135" s="63" t="s">
+      <c r="D135" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="E135" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F135" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="65"/>
-      <c r="H135" s="55"/>
+      <c r="E135" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="62"/>
+      <c r="H135" s="52"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="63"/>
-      <c r="B136" s="63" t="s">
+      <c r="A136" s="60"/>
+      <c r="B136" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="C136" s="63" t="s">
+      <c r="C136" s="60" t="s">
         <v>217</v>
       </c>
-      <c r="D136" s="63"/>
-      <c r="E136" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F136" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="65"/>
-      <c r="H136" s="55"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="62"/>
+      <c r="H136" s="52"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="63"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63" t="s">
+      <c r="A137" s="60"/>
+      <c r="B137" s="60"/>
+      <c r="C137" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="D137" s="63"/>
-      <c r="E137" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F137" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="65"/>
-      <c r="H137" s="55"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" s="62"/>
+      <c r="H137" s="52"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="63"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63" t="s">
+      <c r="A138" s="60"/>
+      <c r="B138" s="60"/>
+      <c r="C138" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="D138" s="63"/>
-      <c r="E138" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F138" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="65"/>
-      <c r="H138" s="55"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="62"/>
+      <c r="H138" s="52"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="63"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="63" t="s">
+      <c r="A139" s="60"/>
+      <c r="B139" s="60"/>
+      <c r="C139" s="60" t="s">
         <v>220</v>
       </c>
-      <c r="D139" s="63"/>
-      <c r="E139" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="F139" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="64"/>
-      <c r="H139" s="55"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="61"/>
+      <c r="H139" s="52"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="36" t="s">
+      <c r="B140" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="36"/>
-      <c r="D140" s="36"/>
-      <c r="E140" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="F140" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="55"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="37"/>
+      <c r="E140" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F140">
@@ -5293,10 +5282,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5350,11 +5339,11 @@
       <c r="E2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5370,11 +5359,11 @@
       <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="15.6" spans="1:8">
       <c r="A4" s="22"/>
@@ -5388,11 +5377,11 @@
       <c r="E4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="27"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
       <c r="A5" s="22"/>
@@ -5406,423 +5395,423 @@
       <c r="E5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="29" t="s">
+      <c r="D7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="29" t="s">
+      <c r="D9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="D10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="29" t="s">
+      <c r="D11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="29" t="s">
+      <c r="D12" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="29" t="s">
+      <c r="D13" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="D14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="D15" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="D16" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="29" t="s">
+      <c r="D17" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="29" t="s">
+      <c r="D18" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" s="29" t="s">
+      <c r="D19" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="29" t="s">
+      <c r="D20" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="29" t="s">
+      <c r="D21" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="26" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="26" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="29" t="s">
+      <c r="D23" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="29" t="s">
+      <c r="D24" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="29" t="s">
+      <c r="D25" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="29" t="s">
+      <c r="D28" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="29" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="29" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28" t="s">
         <v>247</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" ht="15.6" spans="1:8">
       <c r="A32" s="31" t="s">
@@ -5831,350 +5820,350 @@
       <c r="B32" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="30" t="s">
+      <c r="E32" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="33" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:8">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="32" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="30" t="s">
+      <c r="E33" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="27"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" ht="15.6" spans="1:8">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="30" t="s">
+      <c r="E34" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="27"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" ht="15.6" spans="1:8">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="32" t="s">
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="32"/>
-      <c r="G35" s="30" t="s">
+      <c r="E35" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H35" s="27"/>
+      <c r="H35" s="33"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="28" t="s">
         <v>269</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="29" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="29" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="29" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="29" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="29" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="29" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="29" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
     </row>
     <row r="45" hidden="1" spans="1:8">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
     </row>
     <row r="46" hidden="1" spans="1:8">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="40" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
     </row>
     <row r="47" hidden="1" spans="1:8">
-      <c r="A47" s="41"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="40" t="s">
+      <c r="A47" s="34"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
     </row>
     <row r="48" hidden="1" spans="1:8">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="40" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
     </row>
     <row r="49" hidden="1" spans="1:8">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
     </row>
     <row r="50" hidden="1" spans="1:8">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="40" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="29" t="s">
+      <c r="C51" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="29" t="s">
+      <c r="D51" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="38"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="29" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="28" t="s">
         <v>290</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H53">

--- a/doc/开拓足球功能菜单设计1.0.xlsx
+++ b/doc/开拓足球功能菜单设计1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="10007" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="10007" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="开发计划" sheetId="6" r:id="rId1"/>
@@ -1135,10 +1135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1191,25 +1191,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1220,9 +1213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,19 +1229,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1264,14 +1256,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1299,8 +1283,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,7 +1293,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1327,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,12 +1348,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1366,13 +1360,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,7 +1462,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,61 +1504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,85 +1522,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,15 +1606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1636,21 +1621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1662,17 +1632,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,16 +1668,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1727,137 +1721,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1931,10 +1925,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1951,9 +1945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1969,6 +1960,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,40 +1994,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2430,64 +2425,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:4">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:4">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" ht="15.6" spans="1:4">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
     </row>
     <row r="5" ht="15.6" spans="1:4">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
     </row>
     <row r="6" ht="15.6" spans="1:4">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2513,274 +2508,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="63"/>
-      <c r="E2" s="37" t="s">
+      <c r="D2" s="64"/>
+      <c r="E2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="28"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="64"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="65"/>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="28"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="65"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="64"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="65"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="28"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="64"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="65"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="28"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="65"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="65"/>
+      <c r="E8" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="64"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="65"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="64"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="65"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="64"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="37"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="28"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" ht="15.6" spans="1:8">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="69" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
     </row>
     <row r="15" ht="15.6" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="28"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
     <row r="16" ht="15.6" spans="1:8">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="37" t="s">
+      <c r="D16" s="65"/>
+      <c r="E16" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="28"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H16">
@@ -2810,2397 +2805,2397 @@
   <sheetPr/>
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53:F58"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.1296296296296" style="40" customWidth="1"/>
-    <col min="2" max="2" width="25.6296296296296" style="40" customWidth="1"/>
-    <col min="3" max="3" width="28.8796296296296" style="40" customWidth="1"/>
-    <col min="4" max="4" width="51.3796296296296" style="40" customWidth="1"/>
-    <col min="5" max="5" width="9" style="40"/>
-    <col min="6" max="6" width="15.8888888888889" style="40" customWidth="1"/>
-    <col min="7" max="7" width="20.6296296296296" style="40" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="40" customWidth="1"/>
-    <col min="9" max="10" width="9" style="40"/>
-    <col min="11" max="11" width="21.75" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="18.1296296296296" style="41" customWidth="1"/>
+    <col min="2" max="2" width="25.6296296296296" style="41" customWidth="1"/>
+    <col min="3" max="3" width="28.8796296296296" style="41" customWidth="1"/>
+    <col min="4" max="4" width="51.3796296296296" style="41" customWidth="1"/>
+    <col min="5" max="5" width="9" style="41"/>
+    <col min="6" max="6" width="15.8888888888889" style="41" customWidth="1"/>
+    <col min="7" max="7" width="20.6296296296296" style="41" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="41" customWidth="1"/>
+    <col min="9" max="10" width="9" style="41"/>
+    <col min="11" max="11" width="21.75" style="41" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.6" spans="1:11">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="54" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45" t="s">
+      <c r="E2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="37"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="45"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="37"/>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="45"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="46"/>
     </row>
     <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="45" t="s">
+      <c r="E5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
-      <c r="A6" s="37"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="45"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="46"/>
     </row>
     <row r="7" ht="15.6" spans="1:8">
-      <c r="A7" s="37"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="45"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="46"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="45" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="37"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="49"/>
-      <c r="H9" s="45"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="46"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="37"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="45"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="46"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="45"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="46"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="48" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="45"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="37"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="45"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="50"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="37"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="45" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="46" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="37"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="45"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="50"/>
+      <c r="H15" s="46"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="37"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="49"/>
-      <c r="H16" s="45"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="50"/>
+      <c r="H16" s="46"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="37"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="48" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="49"/>
-      <c r="H17" s="45"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="50"/>
+      <c r="H17" s="46"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H19" s="45" t="s">
+      <c r="D19" s="47"/>
+      <c r="E19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H20" s="45"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="46"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="46" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="45"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="46" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="45"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="46"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="46" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="45"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="46" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="46"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="46" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" s="45"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="46" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="45"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="40" t="s">
+      <c r="D27" s="47"/>
+      <c r="E27" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="46" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="40" t="s">
+      <c r="D28" s="47"/>
+      <c r="E28" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="48" t="s">
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="40" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H29" s="45"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48" t="s">
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="40" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="48" t="s">
+      <c r="A31" s="52"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="40" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H31" s="45"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="48" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="40" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="45"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="37"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="37"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47" t="s">
+      <c r="A35" s="36"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="37"/>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="37"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="37"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47" t="s">
+      <c r="A38" s="36"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="45"/>
-      <c r="H38" s="45"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="46"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="37"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="37"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="45" t="s">
+      <c r="D41" s="36"/>
+      <c r="E41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="46" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="46" t="s">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37" t="s">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="45"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F44" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="45"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37" t="s">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="45"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37" t="s">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H46" s="45" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="46" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="45"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37" t="s">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F48" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="45"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="37"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="45"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="37"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="37" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E50" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F50" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H50" s="45"/>
+      <c r="E50" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="37"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H51" s="45"/>
+      <c r="E51" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="37"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37" t="s">
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="45"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="37"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="37" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="45"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="49"/>
-      <c r="H54" s="52" t="s">
+      <c r="D54" s="48"/>
+      <c r="E54" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F54" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="50"/>
+      <c r="H54" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47" t="s">
+      <c r="A55" s="48"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="49"/>
-      <c r="H55" s="52"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="50"/>
+      <c r="H55" s="53"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47" t="s">
+      <c r="A56" s="48"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="49"/>
-      <c r="H56" s="52"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="50"/>
+      <c r="H56" s="53"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47" t="s">
+      <c r="A57" s="48"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="49"/>
-      <c r="H57" s="52"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="50"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47" t="s">
+      <c r="A58" s="48"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="E58" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="49"/>
-      <c r="H58" s="52"/>
+      <c r="E58" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="50"/>
+      <c r="H58" s="53"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="47"/>
-      <c r="B59" s="47" t="s">
+      <c r="A59" s="48"/>
+      <c r="B59" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="C59" s="47" t="s">
+      <c r="C59" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="49"/>
-      <c r="H59" s="52" t="s">
+      <c r="D59" s="48"/>
+      <c r="E59" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="50"/>
+      <c r="H59" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="47"/>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47" t="s">
+      <c r="A60" s="48"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="49"/>
-      <c r="H60" s="52"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="50"/>
+      <c r="H60" s="53"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="47"/>
-      <c r="B61" s="47"/>
-      <c r="C61" s="47" t="s">
+      <c r="A61" s="48"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="49"/>
-      <c r="H61" s="52"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="50"/>
+      <c r="H61" s="53"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47" t="s">
+      <c r="A62" s="48"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F62" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="49"/>
-      <c r="H62" s="52"/>
+      <c r="D62" s="48"/>
+      <c r="E62" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="50"/>
+      <c r="H62" s="53"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="47"/>
-      <c r="B63" s="47" t="s">
+      <c r="A63" s="48"/>
+      <c r="B63" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="47" t="s">
+      <c r="C63" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="49"/>
-      <c r="H63" s="52" t="s">
+      <c r="D63" s="48"/>
+      <c r="E63" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="50"/>
+      <c r="H63" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47" t="s">
+      <c r="A64" s="48"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F64" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="49"/>
-      <c r="H64" s="52"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="53"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="47"/>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47" t="s">
+      <c r="A65" s="48"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F65" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="49"/>
-      <c r="H65" s="52"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F65" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="50"/>
+      <c r="H65" s="53"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47" t="s">
+      <c r="A66" s="48"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="49"/>
-      <c r="H66" s="52"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="50"/>
+      <c r="H66" s="53"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="47"/>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47" t="s">
+      <c r="A67" s="48"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="49"/>
-      <c r="H67" s="52"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="50"/>
+      <c r="H67" s="53"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47" t="s">
+      <c r="A68" s="48"/>
+      <c r="B68" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="47" t="s">
+      <c r="C68" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F68" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="49"/>
-      <c r="H68" s="52" t="s">
+      <c r="D68" s="48"/>
+      <c r="E68" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="50"/>
+      <c r="H68" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="47"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="49"/>
-      <c r="H69" s="52"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="50"/>
+      <c r="H69" s="53"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47" t="s">
+      <c r="A70" s="48"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="49"/>
-      <c r="H70" s="52"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="50"/>
+      <c r="H70" s="53"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="47"/>
-      <c r="B71" s="47"/>
-      <c r="C71" s="47" t="s">
+      <c r="A71" s="48"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="49"/>
-      <c r="H71" s="52"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="50"/>
+      <c r="H71" s="53"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="47"/>
-      <c r="B72" s="47" t="s">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C72" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D72" s="47" t="s">
+      <c r="D72" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="49"/>
-      <c r="H72" s="52" t="s">
+      <c r="E72" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="50"/>
+      <c r="H72" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47" t="s">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="49"/>
-      <c r="H73" s="52"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="50"/>
+      <c r="H73" s="53"/>
     </row>
     <row r="74" spans="1:8">
-      <c r="A74" s="47"/>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47" t="s">
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F74" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="49"/>
-      <c r="H74" s="52"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F74" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="50"/>
+      <c r="H74" s="53"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47" t="s">
+      <c r="A75" s="48"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F75" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="49"/>
-      <c r="H75" s="52"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F75" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="50"/>
+      <c r="H75" s="53"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="47"/>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47" t="s">
+      <c r="A76" s="48"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F76" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="49"/>
-      <c r="H76" s="52"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="50"/>
+      <c r="H76" s="53"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47" t="s">
+      <c r="A77" s="48"/>
+      <c r="B77" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="47" t="s">
+      <c r="C77" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F77" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="49"/>
-      <c r="H77" s="52" t="s">
+      <c r="D77" s="48"/>
+      <c r="E77" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F77" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="50"/>
+      <c r="H77" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="47"/>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47" t="s">
+      <c r="A78" s="48"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F78" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="49"/>
-      <c r="H78" s="52"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F78" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="50"/>
+      <c r="H78" s="53"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47" t="s">
+      <c r="A79" s="48"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="47" t="s">
+      <c r="D79" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F79" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="49"/>
-      <c r="H79" s="52"/>
+      <c r="E79" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="50"/>
+      <c r="H79" s="53"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="47"/>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47" t="s">
+      <c r="A80" s="48"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="49"/>
-      <c r="H80" s="52"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F80" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="50"/>
+      <c r="H80" s="53"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47" t="s">
+      <c r="A81" s="48"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="49"/>
-      <c r="H81" s="52"/>
+      <c r="D81" s="48"/>
+      <c r="E81" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="50"/>
+      <c r="H81" s="53"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="47"/>
-      <c r="B82" s="47" t="s">
+      <c r="A82" s="48"/>
+      <c r="B82" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F82" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="49"/>
-      <c r="H82" s="52" t="s">
+      <c r="D82" s="48"/>
+      <c r="E82" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="50"/>
+      <c r="H82" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47" t="s">
+      <c r="A83" s="48"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F83" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="49"/>
-      <c r="H83" s="52"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="50"/>
+      <c r="H83" s="53"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47" t="s">
+      <c r="A84" s="48"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F84" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="49"/>
-      <c r="H84" s="52"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F84" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="50"/>
+      <c r="H84" s="53"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47" t="s">
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F85" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="49"/>
-      <c r="H85" s="52"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="50"/>
+      <c r="H85" s="53"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47" t="s">
+      <c r="A86" s="48"/>
+      <c r="B86" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="47" t="s">
+      <c r="C86" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F86" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="49"/>
-      <c r="H86" s="52" t="s">
+      <c r="D86" s="48"/>
+      <c r="E86" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="50"/>
+      <c r="H86" s="53" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47" t="s">
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F87" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="49"/>
-      <c r="H87" s="52"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="50"/>
+      <c r="H87" s="53"/>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47" t="s">
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F88" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="49"/>
-      <c r="H88" s="52"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="50"/>
+      <c r="H88" s="53"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B89" s="47" t="s">
+      <c r="B89" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F89" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="45"/>
-      <c r="H89" s="52" t="s">
+      <c r="D89" s="48"/>
+      <c r="E89" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F89" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="46"/>
+      <c r="H89" s="53" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="37"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47" t="s">
+      <c r="A90" s="36"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F90" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="45"/>
-      <c r="H90" s="52"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F90" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="46"/>
+      <c r="H90" s="53"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="A91" s="37"/>
-      <c r="B91" s="47" t="s">
+      <c r="A91" s="36"/>
+      <c r="B91" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="47" t="s">
+      <c r="C91" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F91" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="45"/>
-      <c r="H91" s="52"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="46"/>
+      <c r="H91" s="53"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="37"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47" t="s">
+      <c r="A92" s="36"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F92" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="45"/>
-      <c r="H92" s="52"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F92" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="46"/>
+      <c r="H92" s="53"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="37"/>
-      <c r="B93" s="47" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C93" s="47" t="s">
+      <c r="C93" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F93" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="45"/>
-      <c r="H93" s="52"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F93" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="46"/>
+      <c r="H93" s="53"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="A94" s="37"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="47" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="45"/>
-      <c r="H94" s="52"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="46"/>
+      <c r="H94" s="53"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="37"/>
-      <c r="B95" s="47" t="s">
+      <c r="A95" s="36"/>
+      <c r="B95" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="47" t="s">
+      <c r="C95" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F95" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="45"/>
-      <c r="H95" s="52"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F95" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="46"/>
+      <c r="H95" s="53"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="37"/>
-      <c r="B96" s="47"/>
-      <c r="C96" s="47" t="s">
+      <c r="A96" s="36"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="45"/>
-      <c r="H96" s="52"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F96" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="46"/>
+      <c r="H96" s="53"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="37"/>
-      <c r="B97" s="47" t="s">
+      <c r="A97" s="36"/>
+      <c r="B97" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C97" s="47" t="s">
+      <c r="C97" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D97" s="47"/>
-      <c r="E97" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F97" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="45"/>
-      <c r="H97" s="52"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F97" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="46"/>
+      <c r="H97" s="53"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="37"/>
-      <c r="B98" s="47"/>
-      <c r="C98" s="47" t="s">
+      <c r="A98" s="36"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D98" s="47"/>
-      <c r="E98" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G98" s="45"/>
-      <c r="H98" s="52"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" s="46"/>
+      <c r="H98" s="53"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="37"/>
-      <c r="B99" s="47" t="s">
+      <c r="A99" s="36"/>
+      <c r="B99" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C99" s="47" t="s">
+      <c r="C99" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F99" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G99" s="45"/>
-      <c r="H99" s="52"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F99" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="46"/>
+      <c r="H99" s="53"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="37"/>
-      <c r="B100" s="47" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="C100" s="47" t="s">
+      <c r="C100" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F100" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G100" s="45"/>
-      <c r="H100" s="52"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F100" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G100" s="46"/>
+      <c r="H100" s="53"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="37"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="47" t="s">
+      <c r="A101" s="36"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F101" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G101" s="45"/>
-      <c r="H101" s="52"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F101" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G101" s="46"/>
+      <c r="H101" s="53"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="37"/>
-      <c r="B102" s="47" t="s">
+      <c r="A102" s="36"/>
+      <c r="B102" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="C102" s="47" t="s">
+      <c r="C102" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G102" s="45"/>
-      <c r="H102" s="52"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F102" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="G102" s="46"/>
+      <c r="H102" s="53"/>
     </row>
     <row r="103" spans="1:8">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="C103" s="47" t="s">
+      <c r="C103" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" s="40" t="s">
+      <c r="D103" s="48"/>
+      <c r="E103" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F103" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G103" s="45"/>
-      <c r="H103" s="52"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="53"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="56"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="47" t="s">
+      <c r="A104" s="57"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F104" s="40" t="s">
+      <c r="D104" s="48"/>
+      <c r="E104" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F104" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G104" s="45"/>
-      <c r="H104" s="52"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="53"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="56"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="47" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="59"/>
+      <c r="C105" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F105" s="40" t="s">
+      <c r="D105" s="48"/>
+      <c r="E105" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F105" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G105" s="45"/>
-      <c r="H105" s="52"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="53"/>
     </row>
     <row r="106" spans="1:8">
-      <c r="A106" s="56"/>
-      <c r="B106" s="55" t="s">
+      <c r="A106" s="57"/>
+      <c r="B106" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C106" s="47" t="s">
+      <c r="C106" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D106" s="47"/>
-      <c r="E106" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F106" s="40" t="s">
+      <c r="D106" s="48"/>
+      <c r="E106" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F106" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G106" s="45"/>
-      <c r="H106" s="52"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="53"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="56"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="47" t="s">
+      <c r="A107" s="57"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F107" s="40" t="s">
+      <c r="D107" s="48"/>
+      <c r="E107" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G107" s="45"/>
-      <c r="H107" s="52"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="53"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="56"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="47" t="s">
+      <c r="A108" s="57"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F108" s="40" t="s">
+      <c r="D108" s="48"/>
+      <c r="E108" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F108" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G108" s="45"/>
-      <c r="H108" s="52"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="53"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="56"/>
-      <c r="B109" s="58"/>
-      <c r="C109" s="47" t="s">
+      <c r="A109" s="57"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F109" s="40" t="s">
+      <c r="D109" s="48"/>
+      <c r="E109" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F109" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G109" s="45"/>
-      <c r="H109" s="52"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="53"/>
     </row>
     <row r="110" spans="1:8">
-      <c r="A110" s="56"/>
-      <c r="B110" s="55" t="s">
+      <c r="A110" s="57"/>
+      <c r="B110" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="C110" s="47" t="s">
+      <c r="C110" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F110" s="40" t="s">
+      <c r="D110" s="48"/>
+      <c r="E110" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F110" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G110" s="45"/>
-      <c r="H110" s="52"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="53"/>
     </row>
     <row r="111" spans="1:8">
-      <c r="A111" s="56"/>
-      <c r="B111" s="57"/>
-      <c r="C111" s="47" t="s">
+      <c r="A111" s="57"/>
+      <c r="B111" s="58"/>
+      <c r="C111" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F111" s="40" t="s">
+      <c r="D111" s="48"/>
+      <c r="E111" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F111" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G111" s="45"/>
-      <c r="H111" s="52"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="53"/>
     </row>
     <row r="112" spans="1:8">
-      <c r="A112" s="56"/>
-      <c r="B112" s="57"/>
-      <c r="C112" s="47" t="s">
+      <c r="A112" s="57"/>
+      <c r="B112" s="58"/>
+      <c r="C112" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F112" s="40" t="s">
+      <c r="D112" s="48"/>
+      <c r="E112" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F112" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G112" s="45"/>
-      <c r="H112" s="52"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="53"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="56"/>
-      <c r="B113" s="57"/>
-      <c r="C113" s="47" t="s">
+      <c r="A113" s="57"/>
+      <c r="B113" s="58"/>
+      <c r="C113" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F113" s="40" t="s">
+      <c r="D113" s="48"/>
+      <c r="E113" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F113" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G113" s="45"/>
-      <c r="H113" s="52"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="53"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="56"/>
-      <c r="B114" s="58"/>
-      <c r="C114" s="47" t="s">
+      <c r="A114" s="57"/>
+      <c r="B114" s="59"/>
+      <c r="C114" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F114" s="40" t="s">
+      <c r="D114" s="48"/>
+      <c r="E114" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F114" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G114" s="45"/>
-      <c r="H114" s="52"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="53"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="56"/>
-      <c r="B115" s="55" t="s">
+      <c r="A115" s="57"/>
+      <c r="B115" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="C115" s="47" t="s">
+      <c r="C115" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F115" s="40" t="s">
+      <c r="D115" s="48"/>
+      <c r="E115" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F115" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G115" s="45"/>
-      <c r="H115" s="52"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="53"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="56"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="47" t="s">
+      <c r="A116" s="57"/>
+      <c r="B116" s="58"/>
+      <c r="C116" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F116" s="40" t="s">
+      <c r="D116" s="48"/>
+      <c r="E116" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F116" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G116" s="45"/>
-      <c r="H116" s="52"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="53"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="56"/>
-      <c r="B117" s="57"/>
-      <c r="C117" s="47" t="s">
+      <c r="A117" s="57"/>
+      <c r="B117" s="58"/>
+      <c r="C117" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F117" s="40" t="s">
+      <c r="D117" s="48"/>
+      <c r="E117" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F117" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G117" s="45"/>
-      <c r="H117" s="52"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="53"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="59"/>
-      <c r="B118" s="58"/>
-      <c r="C118" s="47" t="s">
+      <c r="A118" s="60"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="F118" s="40" t="s">
+      <c r="D118" s="48"/>
+      <c r="E118" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="F118" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="G118" s="45"/>
-      <c r="H118" s="52"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="53"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="60" t="s">
+      <c r="A119" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B119" s="60" t="s">
+      <c r="B119" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C119" s="60" t="s">
+      <c r="C119" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="D119" s="60"/>
-      <c r="E119" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G119" s="62"/>
-      <c r="H119" s="52" t="s">
+      <c r="D119" s="61"/>
+      <c r="E119" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F119" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G119" s="63"/>
+      <c r="H119" s="53" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="60"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60" t="s">
+      <c r="A120" s="61"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D120" s="60"/>
-      <c r="E120" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F120" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="62"/>
-      <c r="H120" s="52"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F120" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G120" s="63"/>
+      <c r="H120" s="53"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="60"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60" t="s">
+      <c r="A121" s="61"/>
+      <c r="B121" s="61"/>
+      <c r="C121" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D121" s="60"/>
-      <c r="E121" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F121" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G121" s="62"/>
-      <c r="H121" s="52"/>
+      <c r="D121" s="61"/>
+      <c r="E121" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F121" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="63"/>
+      <c r="H121" s="53"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="60"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60" t="s">
+      <c r="A122" s="61"/>
+      <c r="B122" s="61"/>
+      <c r="C122" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="D122" s="60"/>
-      <c r="E122" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F122" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G122" s="62"/>
-      <c r="H122" s="52"/>
+      <c r="D122" s="61"/>
+      <c r="E122" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F122" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G122" s="63"/>
+      <c r="H122" s="53"/>
     </row>
     <row r="123" ht="33" customHeight="1" spans="1:8">
-      <c r="A123" s="60"/>
-      <c r="B123" s="60"/>
-      <c r="C123" s="60" t="s">
+      <c r="A123" s="61"/>
+      <c r="B123" s="61"/>
+      <c r="C123" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="D123" s="60" t="s">
+      <c r="D123" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F123" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G123" s="61"/>
-      <c r="H123" s="52"/>
+      <c r="E123" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F123" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G123" s="62"/>
+      <c r="H123" s="53"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="60"/>
-      <c r="B124" s="60"/>
-      <c r="C124" s="60" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="D124" s="60"/>
-      <c r="E124" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G124" s="62"/>
-      <c r="H124" s="52"/>
+      <c r="D124" s="61"/>
+      <c r="E124" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G124" s="63"/>
+      <c r="H124" s="53"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="60"/>
-      <c r="B125" s="60"/>
-      <c r="C125" s="60" t="s">
+      <c r="A125" s="61"/>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="D125" s="60"/>
-      <c r="E125" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F125" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G125" s="62"/>
-      <c r="H125" s="52"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F125" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G125" s="63"/>
+      <c r="H125" s="53"/>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" s="60"/>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="61"/>
+      <c r="C126" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F126" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G126" s="62"/>
-      <c r="H126" s="52"/>
+      <c r="D126" s="61"/>
+      <c r="E126" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G126" s="63"/>
+      <c r="H126" s="53"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="60"/>
-      <c r="B127" s="60"/>
-      <c r="C127" s="60" t="s">
+      <c r="A127" s="61"/>
+      <c r="B127" s="61"/>
+      <c r="C127" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="D127" s="60"/>
-      <c r="E127" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F127" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G127" s="62"/>
-      <c r="H127" s="52"/>
+      <c r="D127" s="61"/>
+      <c r="E127" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F127" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G127" s="63"/>
+      <c r="H127" s="53"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="60"/>
-      <c r="B128" s="60"/>
-      <c r="C128" s="60" t="s">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="D128" s="60"/>
-      <c r="E128" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F128" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G128" s="62"/>
-      <c r="H128" s="52"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F128" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G128" s="63"/>
+      <c r="H128" s="53"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="60"/>
-      <c r="B129" s="60"/>
-      <c r="C129" s="60" t="s">
+      <c r="A129" s="61"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="D129" s="60"/>
-      <c r="E129" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F129" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G129" s="62"/>
-      <c r="H129" s="52"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F129" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G129" s="63"/>
+      <c r="H129" s="53"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="60"/>
-      <c r="B130" s="60"/>
-      <c r="C130" s="60" t="s">
+      <c r="A130" s="61"/>
+      <c r="B130" s="61"/>
+      <c r="C130" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="D130" s="60"/>
-      <c r="E130" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F130" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G130" s="62"/>
-      <c r="H130" s="52"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F130" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G130" s="63"/>
+      <c r="H130" s="53"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="60"/>
-      <c r="B131" s="60"/>
-      <c r="C131" s="60" t="s">
+      <c r="A131" s="61"/>
+      <c r="B131" s="61"/>
+      <c r="C131" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="D131" s="60"/>
-      <c r="E131" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F131" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G131" s="62"/>
-      <c r="H131" s="52"/>
+      <c r="D131" s="61"/>
+      <c r="E131" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="63"/>
+      <c r="H131" s="53"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="60"/>
-      <c r="B132" s="60" t="s">
+      <c r="A132" s="61"/>
+      <c r="B132" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C132" s="60" t="s">
+      <c r="C132" s="61" t="s">
         <v>210</v>
       </c>
-      <c r="D132" s="60"/>
-      <c r="E132" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F132" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G132" s="62"/>
-      <c r="H132" s="52" t="s">
+      <c r="D132" s="61"/>
+      <c r="E132" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F132" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="63"/>
+      <c r="H132" s="53" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="60"/>
-      <c r="B133" s="60"/>
-      <c r="C133" s="60" t="s">
+      <c r="A133" s="61"/>
+      <c r="B133" s="61"/>
+      <c r="C133" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="D133" s="60"/>
-      <c r="E133" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F133" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G133" s="62"/>
-      <c r="H133" s="52"/>
+      <c r="D133" s="61"/>
+      <c r="E133" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G133" s="63"/>
+      <c r="H133" s="53"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="60"/>
-      <c r="B134" s="60"/>
-      <c r="C134" s="60" t="s">
+      <c r="A134" s="61"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="D134" s="60" t="s">
+      <c r="D134" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="E134" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F134" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G134" s="62"/>
-      <c r="H134" s="52"/>
+      <c r="E134" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F134" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G134" s="63"/>
+      <c r="H134" s="53"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="60"/>
-      <c r="B135" s="60"/>
-      <c r="C135" s="60" t="s">
+      <c r="A135" s="61"/>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="D135" s="60" t="s">
+      <c r="D135" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="E135" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F135" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G135" s="62"/>
-      <c r="H135" s="52"/>
+      <c r="E135" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G135" s="63"/>
+      <c r="H135" s="53"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="60"/>
-      <c r="B136" s="60" t="s">
+      <c r="A136" s="61"/>
+      <c r="B136" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="C136" s="60" t="s">
+      <c r="C136" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F136" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G136" s="62"/>
-      <c r="H136" s="52"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F136" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G136" s="63"/>
+      <c r="H136" s="53"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="60"/>
-      <c r="B137" s="60"/>
-      <c r="C137" s="60" t="s">
+      <c r="A137" s="61"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="D137" s="60"/>
-      <c r="E137" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F137" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="62"/>
-      <c r="H137" s="52"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G137" s="63"/>
+      <c r="H137" s="53"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="60"/>
-      <c r="B138" s="60"/>
-      <c r="C138" s="60" t="s">
+      <c r="A138" s="61"/>
+      <c r="B138" s="61"/>
+      <c r="C138" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="D138" s="60"/>
-      <c r="E138" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F138" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G138" s="62"/>
-      <c r="H138" s="52"/>
+      <c r="D138" s="61"/>
+      <c r="E138" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F138" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G138" s="63"/>
+      <c r="H138" s="53"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="60"/>
-      <c r="B139" s="60"/>
-      <c r="C139" s="60" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="61"/>
+      <c r="C139" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="D139" s="60"/>
-      <c r="E139" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="F139" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G139" s="61"/>
-      <c r="H139" s="52"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="F139" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="G139" s="62"/>
+      <c r="H139" s="53"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="37" t="s">
+      <c r="A140" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="F140" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="52"/>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F140" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="H140" s="53"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F140">
@@ -5282,10 +5277,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:H35"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5833,13 +5828,13 @@
       <c r="G32" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="26" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:8">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="23" t="s">
         <v>261</v>
       </c>
@@ -5853,11 +5848,11 @@
       <c r="G33" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="H33" s="33"/>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" ht="15.6" spans="1:8">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="23" t="s">
         <v>263</v>
       </c>
@@ -5871,11 +5866,11 @@
       <c r="G34" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="33"/>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" ht="15.6" spans="1:8">
-      <c r="A35" s="34"/>
-      <c r="B35" s="35"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="23" t="s">
         <v>265</v>
       </c>
@@ -5889,13 +5884,13 @@
       <c r="G35" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="26"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="35" t="s">
         <v>268</v>
       </c>
       <c r="C36" s="28" t="s">
@@ -5904,126 +5899,126 @@
       <c r="D36" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="37"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="28" t="s">
         <v>268</v>
       </c>
       <c r="D37" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="37"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="28" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="28" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="28" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="28" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="28" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="28" t="s">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" hidden="1" spans="1:8">
       <c r="A45" s="31" t="s">
@@ -6044,8 +6039,8 @@
       <c r="H45" s="29"/>
     </row>
     <row r="46" hidden="1" spans="1:8">
-      <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="23" t="s">
         <v>281</v>
       </c>
@@ -6058,8 +6053,8 @@
       <c r="H46" s="29"/>
     </row>
     <row r="47" hidden="1" spans="1:8">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="23" t="s">
         <v>282</v>
       </c>
@@ -6072,8 +6067,8 @@
       <c r="H47" s="29"/>
     </row>
     <row r="48" hidden="1" spans="1:8">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="23" t="s">
         <v>283</v>
       </c>
@@ -6104,8 +6099,8 @@
       <c r="H49" s="29"/>
     </row>
     <row r="50" hidden="1" spans="1:8">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="23" t="s">
         <v>287</v>
       </c>
@@ -6118,26 +6113,26 @@
       <c r="H50" s="29"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="32"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="39"/>
-      <c r="B52" s="36" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="35" t="s">
         <v>288</v>
       </c>
       <c r="C52" s="28" t="s">
@@ -6146,21 +6141,21 @@
       <c r="D52" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="37"/>
+      <c r="E52" s="36"/>
       <c r="F52" s="28"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="28" t="s">
         <v>290</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="37"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="28"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
